--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_13_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_13_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>279701.3563952199</v>
+        <v>374923.8428734237</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11394881.86941341</v>
+        <v>11490069.75115645</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18287876.52048243</v>
+        <v>18405384.92476697</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5143581.530849431</v>
+        <v>5081376.137922532</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>187.5255871663198</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>165.1725371760944</v>
+        <v>2.788674974592272</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>128.238775807139</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>15.8745106541563</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15.40229248514476</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>149.7702446909496</v>
+        <v>150.483654767777</v>
       </c>
       <c r="T12" t="n">
-        <v>187.5255871663198</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="U12" t="n">
-        <v>187.5255871663198</v>
+        <v>163.2007333664391</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
     </row>
     <row r="13">
@@ -1533,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>29.00708539155827</v>
+        <v>27.34850929071633</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.7199572267894</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>25.71029132565417</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.343082173845815</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,16 +1609,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>153.8072380324131</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>153.2727934816441</v>
       </c>
       <c r="F14" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>11.36529914368137</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>160.4115946525719</v>
       </c>
       <c r="T14" t="n">
-        <v>187.5255871663199</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,25 +1688,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>133.9048480339322</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>22.68631082774866</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>48.77881175550658</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.29588533250677</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>150.483654767777</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
     </row>
     <row r="16">
@@ -1773,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>68.15818952803765</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>23.43375830553086</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.343082173845815</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>146.9019614358875</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="W16" t="n">
-        <v>187.5255871663199</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,16 +1849,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>182.5570120086799</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>11.36529914368134</v>
+        <v>15.87451065415627</v>
       </c>
       <c r="S17" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>131.0274507817313</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>150.483654767777</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>187.5255871663199</v>
+        <v>163.200733366439</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>138.2613113589521</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="X18" t="n">
-        <v>187.5255871663199</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="Y18" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2046,16 +2046,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.343082173845801</v>
+        <v>6.03938481604149</v>
       </c>
       <c r="R19" t="n">
-        <v>36.68717304700956</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>187.5255871663199</v>
+        <v>140.862576619846</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="Y19" t="n">
-        <v>187.5255871663199</v>
+        <v>166.7824266983284</v>
       </c>
     </row>
     <row r="20">
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>11.36529914368134</v>
+        <v>15.8745106541563</v>
       </c>
       <c r="S20" t="n">
-        <v>153.8072380324132</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>131.0274507817313</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2162,19 +2162,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>57.84909663885052</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.2021972754605</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>150.483654767777</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2219,16 +2219,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.4679987893184115</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2283,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>13.21398198403635</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2365,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W23" t="n">
-        <v>153.8072380324132</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,25 +2396,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>152.2301300981455</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H24" t="n">
-        <v>17.7274716114558</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2453,13 +2453,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2481,10 +2481,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2520,31 +2520,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>187.52558716632</v>
+        <v>54.30560650378695</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X25" t="n">
-        <v>165.1725371760946</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="26">
@@ -2557,23 +2557,23 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>6.396723986041374</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
@@ -2602,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S26" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>153.8072380324131</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y26" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>53.53696330591248</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U27" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>138.261311358952</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2757,16 +2757,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X28" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>169.5230619866313</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>6.396723986041431</v>
       </c>
       <c r="U29" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="V29" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2921,16 +2921,16 @@
         <v>26.91122581714238</v>
       </c>
       <c r="S30" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>176.0166538343223</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>14.18450248202081</v>
       </c>
       <c r="W30" t="n">
         <v>187.5255871663199</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>172.8661441604771</v>
+        <v>95.10802453508488</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>153.807238032413</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U33" t="n">
         <v>187.5255871663199</v>
@@ -3170,13 +3170,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="W33" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
     </row>
     <row r="34">
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
+        <v>161.8294550022487</v>
+      </c>
+      <c r="U34" t="n">
         <v>187.5255871663199</v>
-      </c>
-      <c r="U34" t="n">
-        <v>165.1725371760945</v>
       </c>
       <c r="V34" t="n">
         <v>187.5255871663199</v>
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D35" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,22 +3313,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>39.70122005611973</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>153.8072380324132</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3344,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>84.14553079462131</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3401,16 +3401,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>2.097521993176758</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3438,16 +3438,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>187.52558716632</v>
+        <v>5.485677828504028</v>
       </c>
       <c r="U37" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V37" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>165.1725371760946</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>153.8072380324131</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>153.8072380324131</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3581,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>90.08167292845282</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
         <v>187.5255871663199</v>
-      </c>
-      <c r="U39" t="n">
-        <v>187.5255871663199</v>
-      </c>
-      <c r="V39" t="n">
-        <v>187.5255871663199</v>
-      </c>
-      <c r="W39" t="n">
-        <v>138.2613113589521</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>187.5255871663199</v>
+        <v>74.82925846739279</v>
       </c>
       <c r="U40" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="V40" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>187.5255871663199</v>
+        <v>153.8072380324131</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>11.36529914368134</v>
       </c>
       <c r="S41" t="n">
-        <v>153.8072380324131</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3830,10 +3830,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>29.00874781031917</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>187.5255871663199</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>13.40207192004336</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
         <v>187.5255871663199</v>
-      </c>
-      <c r="U43" t="n">
-        <v>187.5255871663199</v>
-      </c>
-      <c r="V43" t="n">
-        <v>187.5255871663199</v>
-      </c>
-      <c r="W43" t="n">
-        <v>165.1725371760945</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>6.396723986041435</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T44" t="n">
         <v>187.5255871663199</v>
@@ -4036,10 +4036,10 @@
         <v>187.5255871663199</v>
       </c>
       <c r="V44" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T45" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>82.30923924148298</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>32.31347913501392</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4140,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
+        <v>78.17234064123856</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
         <v>187.5255871663199</v>
-      </c>
-      <c r="U46" t="n">
-        <v>187.5255871663199</v>
-      </c>
-      <c r="V46" t="n">
-        <v>165.1725371760945</v>
-      </c>
-      <c r="W46" t="n">
-        <v>187.5255871663199</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>560.6825636487945</v>
+        <v>314.1606521965326</v>
       </c>
       <c r="C11" t="n">
-        <v>560.6825636487945</v>
+        <v>314.1606521965326</v>
       </c>
       <c r="D11" t="n">
-        <v>560.6825636487945</v>
+        <v>314.1606521965326</v>
       </c>
       <c r="E11" t="n">
-        <v>371.2627786323098</v>
+        <v>314.1606521965326</v>
       </c>
       <c r="F11" t="n">
-        <v>181.8429936158252</v>
+        <v>145.6935545214534</v>
       </c>
       <c r="G11" t="n">
-        <v>181.8429936158252</v>
+        <v>145.6935545214534</v>
       </c>
       <c r="H11" t="n">
-        <v>15.00204697330558</v>
+        <v>142.8767111127744</v>
       </c>
       <c r="I11" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J11" t="n">
-        <v>21.03371160678489</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K11" t="n">
-        <v>80.81213159058933</v>
+        <v>64.08111238184307</v>
       </c>
       <c r="L11" t="n">
-        <v>191.8743094079182</v>
+        <v>163.9284927306049</v>
       </c>
       <c r="M11" t="n">
-        <v>347.1218190644752</v>
+        <v>306.6973793432478</v>
       </c>
       <c r="N11" t="n">
-        <v>509.4952041123825</v>
+        <v>456.3902241803913</v>
       </c>
       <c r="O11" t="n">
-        <v>649.4845259985578</v>
+        <v>584.4056715233287</v>
       </c>
       <c r="P11" t="n">
-        <v>734.4611726020261</v>
+        <v>659.1628932295216</v>
       </c>
       <c r="Q11" t="n">
-        <v>750.1023486652791</v>
+        <v>667.1297067933135</v>
       </c>
       <c r="R11" t="n">
-        <v>750.1023486652791</v>
+        <v>651.094847546691</v>
       </c>
       <c r="S11" t="n">
-        <v>750.1023486652791</v>
+        <v>651.094847546691</v>
       </c>
       <c r="T11" t="n">
-        <v>560.6825636487945</v>
+        <v>651.094847546691</v>
       </c>
       <c r="U11" t="n">
-        <v>560.6825636487945</v>
+        <v>651.094847546691</v>
       </c>
       <c r="V11" t="n">
-        <v>560.6825636487945</v>
+        <v>651.094847546691</v>
       </c>
       <c r="W11" t="n">
-        <v>560.6825636487945</v>
+        <v>651.094847546691</v>
       </c>
       <c r="X11" t="n">
-        <v>560.6825636487945</v>
+        <v>651.094847546691</v>
       </c>
       <c r="Y11" t="n">
-        <v>560.6825636487945</v>
+        <v>482.6277498716118</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C12" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D12" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E12" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F12" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G12" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H12" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I12" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J12" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K12" t="n">
-        <v>67.13418877024208</v>
+        <v>59.33472114872545</v>
       </c>
       <c r="L12" t="n">
-        <v>183.5548280772648</v>
+        <v>167.499352853669</v>
       </c>
       <c r="M12" t="n">
-        <v>338.7690911140241</v>
+        <v>313.0792444295232</v>
       </c>
       <c r="N12" t="n">
-        <v>512.5000587546599</v>
+        <v>476.9208474646505</v>
       </c>
       <c r="O12" t="n">
-        <v>649.2101578476345</v>
+        <v>604.5841099877839</v>
       </c>
       <c r="P12" t="n">
-        <v>739.5989987017058</v>
+        <v>661.4800654500999</v>
       </c>
       <c r="Q12" t="n">
-        <v>750.1023486652791</v>
+        <v>667.1297067933135</v>
       </c>
       <c r="R12" t="n">
-        <v>750.1023486652791</v>
+        <v>667.1297067933135</v>
       </c>
       <c r="S12" t="n">
-        <v>598.8192732198754</v>
+        <v>515.1260151086904</v>
       </c>
       <c r="T12" t="n">
-        <v>409.3994882033908</v>
+        <v>346.6589174336112</v>
       </c>
       <c r="U12" t="n">
-        <v>219.9797031869061</v>
+        <v>181.8096918109455</v>
       </c>
       <c r="V12" t="n">
-        <v>219.9797031869061</v>
+        <v>181.8096918109455</v>
       </c>
       <c r="W12" t="n">
-        <v>30.5599181704215</v>
+        <v>181.8096918109455</v>
       </c>
       <c r="X12" t="n">
-        <v>30.5599181704215</v>
+        <v>181.8096918109455</v>
       </c>
       <c r="Y12" t="n">
-        <v>30.5599181704215</v>
+        <v>13.34259413586627</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.30213322740485</v>
+        <v>667.1297067933135</v>
       </c>
       <c r="C13" t="n">
-        <v>44.30213322740485</v>
+        <v>667.1297067933135</v>
       </c>
       <c r="D13" t="n">
-        <v>44.30213322740485</v>
+        <v>517.0130673809778</v>
       </c>
       <c r="E13" t="n">
-        <v>44.30213322740485</v>
+        <v>369.0999737985846</v>
       </c>
       <c r="F13" t="n">
-        <v>44.30213322740485</v>
+        <v>222.2100263006743</v>
       </c>
       <c r="G13" t="n">
-        <v>15.00204697330558</v>
+        <v>194.5852694413649</v>
       </c>
       <c r="H13" t="n">
-        <v>15.00204697330558</v>
+        <v>39.31258537390079</v>
       </c>
       <c r="I13" t="n">
-        <v>15.00204697330558</v>
+        <v>39.31258537390079</v>
       </c>
       <c r="J13" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7151088594233</v>
+        <v>59.4953688338278</v>
       </c>
       <c r="L13" t="n">
-        <v>279.6026869745584</v>
+        <v>66.7936177538017</v>
       </c>
       <c r="M13" t="n">
-        <v>465.253018269215</v>
+        <v>231.9082201851468</v>
       </c>
       <c r="N13" t="n">
-        <v>587.3641452287291</v>
+        <v>397.0228226164919</v>
       </c>
       <c r="O13" t="n">
-        <v>750.1023486652791</v>
+        <v>555.2552294678667</v>
       </c>
       <c r="P13" t="n">
-        <v>750.1023486652791</v>
+        <v>667.1297067933135</v>
       </c>
       <c r="Q13" t="n">
-        <v>746.7254979846268</v>
+        <v>667.1297067933135</v>
       </c>
       <c r="R13" t="n">
-        <v>612.5614882768588</v>
+        <v>667.1297067933135</v>
       </c>
       <c r="S13" t="n">
-        <v>612.5614882768588</v>
+        <v>667.1297067933135</v>
       </c>
       <c r="T13" t="n">
-        <v>612.5614882768588</v>
+        <v>667.1297067933135</v>
       </c>
       <c r="U13" t="n">
-        <v>423.1417032603741</v>
+        <v>667.1297067933135</v>
       </c>
       <c r="V13" t="n">
-        <v>233.7219182438895</v>
+        <v>667.1297067933135</v>
       </c>
       <c r="W13" t="n">
-        <v>44.30213322740485</v>
+        <v>667.1297067933135</v>
       </c>
       <c r="X13" t="n">
-        <v>44.30213322740485</v>
+        <v>667.1297067933135</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.30213322740485</v>
+        <v>667.1297067933135</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>359.7826784871773</v>
+        <v>336.6306953277577</v>
       </c>
       <c r="C14" t="n">
-        <v>204.4218319897903</v>
+        <v>168.1635976526785</v>
       </c>
       <c r="D14" t="n">
-        <v>204.4218319897903</v>
+        <v>168.1635976526785</v>
       </c>
       <c r="E14" t="n">
-        <v>204.4218319897903</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F14" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G14" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H14" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I14" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J14" t="n">
-        <v>21.03371160678496</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K14" t="n">
-        <v>80.81213159059007</v>
+        <v>64.08111238184307</v>
       </c>
       <c r="L14" t="n">
-        <v>191.8743094079192</v>
+        <v>163.9284927306049</v>
       </c>
       <c r="M14" t="n">
-        <v>347.1218190644761</v>
+        <v>306.6973793432478</v>
       </c>
       <c r="N14" t="n">
-        <v>509.4952041123834</v>
+        <v>456.3902241803913</v>
       </c>
       <c r="O14" t="n">
-        <v>649.4845259985586</v>
+        <v>584.4056715233287</v>
       </c>
       <c r="P14" t="n">
-        <v>734.4611726020265</v>
+        <v>659.1628932295216</v>
       </c>
       <c r="Q14" t="n">
-        <v>750.1023486652796</v>
+        <v>667.1297067933135</v>
       </c>
       <c r="R14" t="n">
-        <v>738.6222485201469</v>
+        <v>667.1297067933135</v>
       </c>
       <c r="S14" t="n">
-        <v>738.6222485201469</v>
+        <v>505.0977930028369</v>
       </c>
       <c r="T14" t="n">
-        <v>549.2024635036621</v>
+        <v>336.6306953277577</v>
       </c>
       <c r="U14" t="n">
-        <v>549.2024635036621</v>
+        <v>336.6306953277577</v>
       </c>
       <c r="V14" t="n">
-        <v>549.2024635036621</v>
+        <v>336.6306953277577</v>
       </c>
       <c r="W14" t="n">
-        <v>549.2024635036621</v>
+        <v>336.6306953277577</v>
       </c>
       <c r="X14" t="n">
-        <v>549.2024635036621</v>
+        <v>336.6306953277577</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.7826784871773</v>
+        <v>336.6306953277577</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>371.2627786323101</v>
+        <v>148.6000163923634</v>
       </c>
       <c r="C15" t="n">
-        <v>371.2627786323101</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D15" t="n">
-        <v>371.2627786323101</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E15" t="n">
-        <v>348.3473131497357</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8127551766207</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G15" t="n">
-        <v>64.27357399906982</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H15" t="n">
-        <v>64.27357399906982</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I15" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J15" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K15" t="n">
-        <v>67.13418877024208</v>
+        <v>59.33472114872545</v>
       </c>
       <c r="L15" t="n">
-        <v>183.5548280772648</v>
+        <v>167.499352853669</v>
       </c>
       <c r="M15" t="n">
-        <v>338.7690911140241</v>
+        <v>286.8472429682663</v>
       </c>
       <c r="N15" t="n">
-        <v>512.5000587546599</v>
+        <v>450.6888460033936</v>
       </c>
       <c r="O15" t="n">
-        <v>649.2101578476345</v>
+        <v>578.352108526527</v>
       </c>
       <c r="P15" t="n">
-        <v>739.5989987017058</v>
+        <v>661.4800654500999</v>
       </c>
       <c r="Q15" t="n">
-        <v>750.1023486652796</v>
+        <v>667.1297067933135</v>
       </c>
       <c r="R15" t="n">
-        <v>750.1023486652796</v>
+        <v>637.537903427145</v>
       </c>
       <c r="S15" t="n">
-        <v>750.1023486652796</v>
+        <v>485.5342117425218</v>
       </c>
       <c r="T15" t="n">
-        <v>750.1023486652796</v>
+        <v>317.0671140674426</v>
       </c>
       <c r="U15" t="n">
-        <v>750.1023486652796</v>
+        <v>317.0671140674426</v>
       </c>
       <c r="V15" t="n">
-        <v>560.6825636487948</v>
+        <v>317.0671140674426</v>
       </c>
       <c r="W15" t="n">
-        <v>371.2627786323101</v>
+        <v>317.0671140674426</v>
       </c>
       <c r="X15" t="n">
-        <v>371.2627786323101</v>
+        <v>317.0671140674426</v>
       </c>
       <c r="Y15" t="n">
-        <v>371.2627786323101</v>
+        <v>148.6000163923634</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>557.3057129681425</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C16" t="n">
-        <v>557.3057129681425</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D16" t="n">
-        <v>557.3057129681425</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E16" t="n">
-        <v>409.3926193857494</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F16" t="n">
-        <v>262.502671887839</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G16" t="n">
-        <v>193.6560157989121</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H16" t="n">
-        <v>38.67250990818525</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I16" t="n">
-        <v>38.67250990818525</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J16" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K16" t="n">
-        <v>15.00204697330559</v>
+        <v>101.3520233773647</v>
       </c>
       <c r="L16" t="n">
-        <v>187.8896250884406</v>
+        <v>266.4666258087098</v>
       </c>
       <c r="M16" t="n">
-        <v>373.5399563830973</v>
+        <v>277.4198890189938</v>
       </c>
       <c r="N16" t="n">
-        <v>559.190287677754</v>
+        <v>397.0228226164919</v>
       </c>
       <c r="O16" t="n">
-        <v>721.9284911143041</v>
+        <v>555.2552294678667</v>
       </c>
       <c r="P16" t="n">
-        <v>750.1023486652796</v>
+        <v>667.1297067933135</v>
       </c>
       <c r="Q16" t="n">
-        <v>746.7254979846273</v>
+        <v>667.1297067933135</v>
       </c>
       <c r="R16" t="n">
-        <v>746.7254979846273</v>
+        <v>667.1297067933135</v>
       </c>
       <c r="S16" t="n">
-        <v>746.7254979846273</v>
+        <v>667.1297067933135</v>
       </c>
       <c r="T16" t="n">
-        <v>746.7254979846273</v>
+        <v>518.7438871611039</v>
       </c>
       <c r="U16" t="n">
-        <v>746.7254979846273</v>
+        <v>350.2767894860247</v>
       </c>
       <c r="V16" t="n">
-        <v>746.7254979846273</v>
+        <v>181.8096918109455</v>
       </c>
       <c r="W16" t="n">
-        <v>557.3057129681425</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="X16" t="n">
-        <v>557.3057129681425</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="Y16" t="n">
-        <v>557.3057129681425</v>
+        <v>13.34259413586627</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>388.8228542207802</v>
+        <v>181.8096918109455</v>
       </c>
       <c r="C17" t="n">
-        <v>388.8228542207802</v>
+        <v>181.8096918109455</v>
       </c>
       <c r="D17" t="n">
-        <v>204.4218319897903</v>
+        <v>181.8096918109455</v>
       </c>
       <c r="E17" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8096918109455</v>
       </c>
       <c r="F17" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8096918109455</v>
       </c>
       <c r="G17" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H17" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I17" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J17" t="n">
-        <v>21.03371160678496</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K17" t="n">
-        <v>80.81213159058922</v>
+        <v>64.08111238184313</v>
       </c>
       <c r="L17" t="n">
-        <v>191.8743094079182</v>
+        <v>163.9284927306051</v>
       </c>
       <c r="M17" t="n">
-        <v>347.1218190644753</v>
+        <v>306.6973793432476</v>
       </c>
       <c r="N17" t="n">
-        <v>509.4952041123827</v>
+        <v>456.3902241803913</v>
       </c>
       <c r="O17" t="n">
-        <v>649.4845259985581</v>
+        <v>584.4056715233286</v>
       </c>
       <c r="P17" t="n">
-        <v>734.4611726020264</v>
+        <v>659.1628932295216</v>
       </c>
       <c r="Q17" t="n">
-        <v>750.1023486652796</v>
+        <v>667.1297067933135</v>
       </c>
       <c r="R17" t="n">
-        <v>738.6222485201469</v>
+        <v>651.094847546691</v>
       </c>
       <c r="S17" t="n">
-        <v>578.2426392372649</v>
+        <v>651.094847546691</v>
       </c>
       <c r="T17" t="n">
-        <v>578.2426392372649</v>
+        <v>482.6277498716118</v>
       </c>
       <c r="U17" t="n">
-        <v>578.2426392372649</v>
+        <v>482.6277498716118</v>
       </c>
       <c r="V17" t="n">
-        <v>578.2426392372649</v>
+        <v>314.1606521965326</v>
       </c>
       <c r="W17" t="n">
-        <v>578.2426392372649</v>
+        <v>181.8096918109455</v>
       </c>
       <c r="X17" t="n">
-        <v>578.2426392372649</v>
+        <v>181.8096918109455</v>
       </c>
       <c r="Y17" t="n">
-        <v>388.8228542207802</v>
+        <v>181.8096918109455</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C18" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D18" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E18" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F18" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G18" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H18" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I18" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J18" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K18" t="n">
-        <v>67.13418877024208</v>
+        <v>59.33472114872548</v>
       </c>
       <c r="L18" t="n">
-        <v>183.5548280772649</v>
+        <v>167.4993528536691</v>
       </c>
       <c r="M18" t="n">
-        <v>338.7690911140243</v>
+        <v>286.847242968266</v>
       </c>
       <c r="N18" t="n">
-        <v>512.50005875466</v>
+        <v>450.6888460033933</v>
       </c>
       <c r="O18" t="n">
-        <v>649.2101578476347</v>
+        <v>578.3521085265268</v>
       </c>
       <c r="P18" t="n">
-        <v>739.5989987017061</v>
+        <v>661.4800654500998</v>
       </c>
       <c r="Q18" t="n">
-        <v>750.1023486652796</v>
+        <v>667.1297067933135</v>
       </c>
       <c r="R18" t="n">
-        <v>722.9192922843276</v>
+        <v>667.1297067933135</v>
       </c>
       <c r="S18" t="n">
-        <v>722.9192922843276</v>
+        <v>515.1260151086904</v>
       </c>
       <c r="T18" t="n">
-        <v>722.9192922843276</v>
+        <v>515.1260151086904</v>
       </c>
       <c r="U18" t="n">
-        <v>533.4995072678429</v>
+        <v>350.2767894860247</v>
       </c>
       <c r="V18" t="n">
-        <v>533.4995072678429</v>
+        <v>350.2767894860247</v>
       </c>
       <c r="W18" t="n">
-        <v>393.8416170062751</v>
+        <v>181.8096918109455</v>
       </c>
       <c r="X18" t="n">
-        <v>204.4218319897903</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="Y18" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>330.8281773991229</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C19" t="n">
-        <v>161.891994471216</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D19" t="n">
-        <v>161.891994471216</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E19" t="n">
-        <v>161.891994471216</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F19" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G19" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H19" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I19" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J19" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K19" t="n">
-        <v>15.00204697330559</v>
+        <v>101.3520233773647</v>
       </c>
       <c r="L19" t="n">
-        <v>187.8896250884407</v>
+        <v>266.4666258087099</v>
       </c>
       <c r="M19" t="n">
-        <v>373.5399563830973</v>
+        <v>431.581228240055</v>
       </c>
       <c r="N19" t="n">
-        <v>559.190287677754</v>
+        <v>596.6958306714001</v>
       </c>
       <c r="O19" t="n">
-        <v>721.9284911143042</v>
+        <v>596.6958306714001</v>
       </c>
       <c r="P19" t="n">
-        <v>750.1023486652796</v>
+        <v>667.1297067933135</v>
       </c>
       <c r="Q19" t="n">
-        <v>746.7254979846273</v>
+        <v>661.0293180902413</v>
       </c>
       <c r="R19" t="n">
-        <v>709.6677474320924</v>
+        <v>661.0293180902413</v>
       </c>
       <c r="S19" t="n">
-        <v>709.6677474320924</v>
+        <v>661.0293180902413</v>
       </c>
       <c r="T19" t="n">
-        <v>520.2479624156076</v>
+        <v>518.7438871611039</v>
       </c>
       <c r="U19" t="n">
-        <v>520.2479624156076</v>
+        <v>518.7438871611039</v>
       </c>
       <c r="V19" t="n">
-        <v>520.2479624156076</v>
+        <v>518.7438871611039</v>
       </c>
       <c r="W19" t="n">
-        <v>520.2479624156076</v>
+        <v>518.7438871611039</v>
       </c>
       <c r="X19" t="n">
-        <v>520.2479624156076</v>
+        <v>350.2767894860247</v>
       </c>
       <c r="Y19" t="n">
-        <v>330.8281773991229</v>
+        <v>181.8096918109455</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>393.8416170062752</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C20" t="n">
-        <v>393.8416170062752</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D20" t="n">
-        <v>393.8416170062752</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E20" t="n">
-        <v>393.8416170062752</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F20" t="n">
-        <v>204.4218319897904</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G20" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H20" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I20" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J20" t="n">
-        <v>21.03371160678478</v>
+        <v>13.34259413586628</v>
       </c>
       <c r="K20" t="n">
-        <v>80.81213159058939</v>
+        <v>64.08111238184313</v>
       </c>
       <c r="L20" t="n">
-        <v>191.8743094079184</v>
+        <v>163.9284927306049</v>
       </c>
       <c r="M20" t="n">
-        <v>347.1218190644753</v>
+        <v>306.6973793432475</v>
       </c>
       <c r="N20" t="n">
-        <v>509.4952041123828</v>
+        <v>456.390224180391</v>
       </c>
       <c r="O20" t="n">
-        <v>649.4845259985584</v>
+        <v>584.4056715233287</v>
       </c>
       <c r="P20" t="n">
-        <v>734.4611726020266</v>
+        <v>659.1628932295217</v>
       </c>
       <c r="Q20" t="n">
-        <v>750.1023486652798</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="R20" t="n">
-        <v>738.6222485201471</v>
+        <v>651.0948475466911</v>
       </c>
       <c r="S20" t="n">
-        <v>583.26140202276</v>
+        <v>651.0948475466911</v>
       </c>
       <c r="T20" t="n">
-        <v>393.8416170062752</v>
+        <v>651.0948475466911</v>
       </c>
       <c r="U20" t="n">
-        <v>393.8416170062752</v>
+        <v>482.6277498716119</v>
       </c>
       <c r="V20" t="n">
-        <v>393.8416170062752</v>
+        <v>314.1606521965326</v>
       </c>
       <c r="W20" t="n">
-        <v>393.8416170062752</v>
+        <v>145.6935545214534</v>
       </c>
       <c r="X20" t="n">
-        <v>393.8416170062752</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="Y20" t="n">
-        <v>393.8416170062752</v>
+        <v>13.34259413586627</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15.0020469733056</v>
+        <v>515.1260151086904</v>
       </c>
       <c r="C21" t="n">
-        <v>15.0020469733056</v>
+        <v>456.6925841603565</v>
       </c>
       <c r="D21" t="n">
-        <v>15.0020469733056</v>
+        <v>456.6925841603565</v>
       </c>
       <c r="E21" t="n">
-        <v>15.0020469733056</v>
+        <v>297.455129154901</v>
       </c>
       <c r="F21" t="n">
-        <v>15.0020469733056</v>
+        <v>150.920571181786</v>
       </c>
       <c r="G21" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H21" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I21" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J21" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K21" t="n">
-        <v>67.13418877024242</v>
+        <v>59.33472114872545</v>
       </c>
       <c r="L21" t="n">
-        <v>183.554828077265</v>
+        <v>167.499352853669</v>
       </c>
       <c r="M21" t="n">
-        <v>338.7690911140246</v>
+        <v>313.0792444295232</v>
       </c>
       <c r="N21" t="n">
-        <v>512.5000587546604</v>
+        <v>476.9208474646505</v>
       </c>
       <c r="O21" t="n">
-        <v>649.2101578476351</v>
+        <v>604.5841099877839</v>
       </c>
       <c r="P21" t="n">
-        <v>739.5989987017064</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="Q21" t="n">
-        <v>750.1023486652798</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="R21" t="n">
-        <v>750.1023486652798</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="S21" t="n">
-        <v>750.1023486652798</v>
+        <v>515.1260151086904</v>
       </c>
       <c r="T21" t="n">
-        <v>750.1023486652798</v>
+        <v>515.1260151086904</v>
       </c>
       <c r="U21" t="n">
-        <v>750.1023486652798</v>
+        <v>515.1260151086904</v>
       </c>
       <c r="V21" t="n">
-        <v>560.6825636487949</v>
+        <v>515.1260151086904</v>
       </c>
       <c r="W21" t="n">
-        <v>371.2627786323101</v>
+        <v>515.1260151086904</v>
       </c>
       <c r="X21" t="n">
-        <v>181.8429936158253</v>
+        <v>515.1260151086904</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.0020469733056</v>
+        <v>515.1260151086904</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>165.1186863856413</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="C22" t="n">
-        <v>165.1186863856413</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="D22" t="n">
-        <v>15.0020469733056</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="E22" t="n">
-        <v>15.0020469733056</v>
+        <v>182.2824178607621</v>
       </c>
       <c r="F22" t="n">
-        <v>15.0020469733056</v>
+        <v>182.2824178607621</v>
       </c>
       <c r="G22" t="n">
-        <v>15.0020469733056</v>
+        <v>13.81532018568285</v>
       </c>
       <c r="H22" t="n">
-        <v>15.0020469733056</v>
+        <v>13.81532018568285</v>
       </c>
       <c r="I22" t="n">
-        <v>15.0020469733056</v>
+        <v>13.81532018568285</v>
       </c>
       <c r="J22" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K22" t="n">
-        <v>15.0020469733056</v>
+        <v>101.3520233773647</v>
       </c>
       <c r="L22" t="n">
-        <v>187.8896250884407</v>
+        <v>266.4666258087099</v>
       </c>
       <c r="M22" t="n">
-        <v>373.5399563830974</v>
+        <v>277.4198890189939</v>
       </c>
       <c r="N22" t="n">
-        <v>559.1902876777542</v>
+        <v>442.534491450339</v>
       </c>
       <c r="O22" t="n">
-        <v>721.9284911143044</v>
+        <v>555.2552294678668</v>
       </c>
       <c r="P22" t="n">
-        <v>750.1023486652798</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="Q22" t="n">
-        <v>746.7254979846275</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="R22" t="n">
-        <v>746.7254979846275</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="S22" t="n">
-        <v>733.3780414350958</v>
+        <v>498.6626091182344</v>
       </c>
       <c r="T22" t="n">
-        <v>733.3780414350958</v>
+        <v>498.6626091182344</v>
       </c>
       <c r="U22" t="n">
-        <v>733.3780414350958</v>
+        <v>498.6626091182344</v>
       </c>
       <c r="V22" t="n">
-        <v>543.958256418611</v>
+        <v>498.6626091182344</v>
       </c>
       <c r="W22" t="n">
-        <v>543.958256418611</v>
+        <v>498.6626091182344</v>
       </c>
       <c r="X22" t="n">
-        <v>354.5384714021261</v>
+        <v>498.6626091182344</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.1186863856413</v>
+        <v>498.6626091182344</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>15.0020469733056</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="C23" t="n">
-        <v>15.0020469733056</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="D23" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E23" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F23" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G23" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H23" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I23" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J23" t="n">
-        <v>21.03371160678498</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K23" t="n">
-        <v>80.81213159058973</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L23" t="n">
-        <v>191.8743094079189</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M23" t="n">
-        <v>347.121819064476</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N23" t="n">
-        <v>509.4952041123833</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O23" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P23" t="n">
-        <v>734.4611726020267</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q23" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R23" t="n">
-        <v>738.6222485201472</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S23" t="n">
-        <v>738.6222485201472</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T23" t="n">
-        <v>549.2024635036623</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="U23" t="n">
-        <v>549.2024635036623</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="V23" t="n">
-        <v>359.7826784871775</v>
+        <v>371.26277863231</v>
       </c>
       <c r="W23" t="n">
-        <v>204.4218319897904</v>
+        <v>371.26277863231</v>
       </c>
       <c r="X23" t="n">
-        <v>15.0020469733056</v>
+        <v>371.26277863231</v>
       </c>
       <c r="Y23" t="n">
-        <v>15.0020469733056</v>
+        <v>371.26277863231</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>181.8429936158253</v>
+        <v>554.7039552642595</v>
       </c>
       <c r="C24" t="n">
-        <v>181.8429936158253</v>
+        <v>554.7039552642595</v>
       </c>
       <c r="D24" t="n">
-        <v>32.90858395457408</v>
+        <v>554.7039552642595</v>
       </c>
       <c r="E24" t="n">
-        <v>32.90858395457408</v>
+        <v>400.9361470843146</v>
       </c>
       <c r="F24" t="n">
-        <v>32.90858395457408</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="G24" t="n">
-        <v>32.90858395457408</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H24" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I24" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J24" t="n">
-        <v>15.00204697330584</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K24" t="n">
-        <v>67.13418877024239</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L24" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M24" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N24" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O24" t="n">
-        <v>649.2101578476351</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P24" t="n">
-        <v>739.5989987017065</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q24" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R24" t="n">
-        <v>750.1023486652799</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="S24" t="n">
-        <v>750.1023486652799</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="T24" t="n">
-        <v>750.1023486652799</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="U24" t="n">
-        <v>560.6825636487951</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="V24" t="n">
-        <v>371.2627786323102</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="W24" t="n">
-        <v>181.8429936158253</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="X24" t="n">
-        <v>181.8429936158253</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="Y24" t="n">
-        <v>181.8429936158253</v>
+        <v>722.9192922843275</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.0020469733056</v>
+        <v>313.0317799680345</v>
       </c>
       <c r="C25" t="n">
-        <v>15.0020469733056</v>
+        <v>313.0317799680345</v>
       </c>
       <c r="D25" t="n">
-        <v>15.0020469733056</v>
+        <v>162.9151405556987</v>
       </c>
       <c r="E25" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F25" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G25" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H25" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I25" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J25" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K25" t="n">
-        <v>106.7151088594234</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L25" t="n">
-        <v>216.0634826394162</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M25" t="n">
-        <v>401.713813934073</v>
+        <v>373.5399563830973</v>
       </c>
       <c r="N25" t="n">
-        <v>587.3641452287297</v>
+        <v>559.190287677754</v>
       </c>
       <c r="O25" t="n">
-        <v>750.1023486652799</v>
+        <v>721.9284911143042</v>
       </c>
       <c r="P25" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q25" t="n">
-        <v>750.1023486652799</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="R25" t="n">
-        <v>750.1023486652799</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="S25" t="n">
-        <v>560.6825636487951</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="T25" t="n">
-        <v>560.6825636487951</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="U25" t="n">
-        <v>371.2627786323102</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="V25" t="n">
-        <v>181.8429936158253</v>
+        <v>691.871350001004</v>
       </c>
       <c r="W25" t="n">
-        <v>181.8429936158253</v>
+        <v>502.4515649845192</v>
       </c>
       <c r="X25" t="n">
-        <v>15.0020469733056</v>
+        <v>502.4515649845192</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.0020469733056</v>
+        <v>313.0317799680345</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>400.3029543659128</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="C26" t="n">
-        <v>393.841617006275</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="D26" t="n">
-        <v>204.4218319897903</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="E26" t="n">
         <v>204.4218319897903</v>
@@ -6217,7 +6217,7 @@
         <v>204.4218319897903</v>
       </c>
       <c r="G26" t="n">
-        <v>15.00204697330559</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="H26" t="n">
         <v>15.00204697330559</v>
@@ -6226,10 +6226,10 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J26" t="n">
-        <v>21.03371160678495</v>
+        <v>21.03371160678473</v>
       </c>
       <c r="K26" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058922</v>
       </c>
       <c r="L26" t="n">
         <v>191.8743094079182</v>
@@ -6244,34 +6244,34 @@
         <v>649.4845259985581</v>
       </c>
       <c r="P26" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q26" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R26" t="n">
-        <v>750.1023486652795</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="S26" t="n">
-        <v>589.7227393823975</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="T26" t="n">
-        <v>589.7227393823975</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="U26" t="n">
-        <v>589.7227393823975</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="V26" t="n">
-        <v>589.7227393823975</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="W26" t="n">
-        <v>589.7227393823975</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="X26" t="n">
-        <v>589.7227393823975</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="Y26" t="n">
-        <v>400.3029543659128</v>
+        <v>393.8416170062751</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15.00204697330559</v>
+        <v>392.4672266287268</v>
       </c>
       <c r="C27" t="n">
-        <v>15.00204697330559</v>
+        <v>218.0141973475998</v>
       </c>
       <c r="D27" t="n">
-        <v>15.00204697330559</v>
+        <v>69.07978768634851</v>
       </c>
       <c r="E27" t="n">
-        <v>15.00204697330559</v>
+        <v>69.07978768634851</v>
       </c>
       <c r="F27" t="n">
-        <v>15.00204697330559</v>
+        <v>69.07978768634851</v>
       </c>
       <c r="G27" t="n">
-        <v>15.00204697330559</v>
+        <v>69.07978768634851</v>
       </c>
       <c r="H27" t="n">
         <v>15.00204697330559</v>
@@ -6305,52 +6305,52 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J27" t="n">
-        <v>15.00204697330539</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K27" t="n">
-        <v>67.13418877024193</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L27" t="n">
-        <v>183.5548280772647</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M27" t="n">
-        <v>338.7690911140241</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N27" t="n">
-        <v>512.5000587546599</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O27" t="n">
-        <v>649.2101578476346</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P27" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017061</v>
       </c>
       <c r="Q27" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R27" t="n">
-        <v>722.9192922843275</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S27" t="n">
-        <v>722.9192922843275</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T27" t="n">
-        <v>722.9192922843275</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="U27" t="n">
-        <v>533.4995072678428</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="V27" t="n">
-        <v>393.841617006275</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="W27" t="n">
-        <v>204.4218319897903</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="X27" t="n">
-        <v>204.4218319897903</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="Y27" t="n">
-        <v>15.00204697330559</v>
+        <v>560.6825636487948</v>
       </c>
     </row>
     <row r="28">
@@ -6387,49 +6387,49 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K28" t="n">
-        <v>15.00204697330559</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L28" t="n">
-        <v>187.8896250884407</v>
+        <v>118.7527324484195</v>
       </c>
       <c r="M28" t="n">
-        <v>373.5399563830973</v>
+        <v>304.4030637430762</v>
       </c>
       <c r="N28" t="n">
-        <v>559.190287677754</v>
+        <v>490.0533950377329</v>
       </c>
       <c r="O28" t="n">
-        <v>721.9284911143042</v>
+        <v>652.7915984742831</v>
       </c>
       <c r="P28" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="Q28" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="R28" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="S28" t="n">
-        <v>560.6825636487947</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="T28" t="n">
-        <v>371.26277863231</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="U28" t="n">
-        <v>371.26277863231</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="V28" t="n">
-        <v>181.8429936158252</v>
+        <v>557.3057129681425</v>
       </c>
       <c r="W28" t="n">
-        <v>181.8429936158252</v>
+        <v>367.8859279516578</v>
       </c>
       <c r="X28" t="n">
-        <v>15.00204697330559</v>
+        <v>367.8859279516578</v>
       </c>
       <c r="Y28" t="n">
-        <v>15.00204697330559</v>
+        <v>196.6505118035453</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>181.8429936158252</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="C29" t="n">
-        <v>15.00204697330559</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="D29" t="n">
-        <v>15.00204697330559</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="E29" t="n">
-        <v>15.00204697330559</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="F29" t="n">
-        <v>15.00204697330559</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="G29" t="n">
-        <v>15.00204697330559</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="H29" t="n">
         <v>15.00204697330559</v>
@@ -6463,52 +6463,52 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J29" t="n">
-        <v>21.03371160678496</v>
+        <v>21.03371160678473</v>
       </c>
       <c r="K29" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058922</v>
       </c>
       <c r="L29" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079182</v>
       </c>
       <c r="M29" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N29" t="n">
-        <v>509.4952041123829</v>
+        <v>509.4952041123827</v>
       </c>
       <c r="O29" t="n">
-        <v>649.4845259985583</v>
+        <v>649.4845259985581</v>
       </c>
       <c r="P29" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q29" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R29" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S29" t="n">
-        <v>750.1023486652795</v>
+        <v>589.7227393823977</v>
       </c>
       <c r="T29" t="n">
-        <v>750.1023486652795</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="U29" t="n">
-        <v>560.6825636487947</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="V29" t="n">
-        <v>371.26277863231</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="W29" t="n">
-        <v>181.8429936158252</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="X29" t="n">
-        <v>181.8429936158252</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="Y29" t="n">
-        <v>181.8429936158252</v>
+        <v>393.8416170062751</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>15.00204697330559</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="C30" t="n">
-        <v>15.00204697330559</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="D30" t="n">
-        <v>15.00204697330559</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="E30" t="n">
-        <v>15.00204697330559</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F30" t="n">
         <v>15.00204697330559</v>
@@ -6548,46 +6548,46 @@
         <v>67.13418877024213</v>
       </c>
       <c r="L30" t="n">
-        <v>183.5548280772647</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M30" t="n">
-        <v>338.7690911140241</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N30" t="n">
-        <v>512.5000587546599</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O30" t="n">
-        <v>649.2101578476346</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P30" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q30" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R30" t="n">
-        <v>722.9192922843275</v>
+        <v>722.9192922843276</v>
       </c>
       <c r="S30" t="n">
-        <v>571.6362168389238</v>
+        <v>722.9192922843276</v>
       </c>
       <c r="T30" t="n">
-        <v>393.841617006275</v>
+        <v>722.9192922843276</v>
       </c>
       <c r="U30" t="n">
-        <v>204.4218319897903</v>
+        <v>533.4995072678429</v>
       </c>
       <c r="V30" t="n">
-        <v>204.4218319897903</v>
+        <v>519.1717269829734</v>
       </c>
       <c r="W30" t="n">
-        <v>15.00204697330559</v>
+        <v>329.7519419664886</v>
       </c>
       <c r="X30" t="n">
-        <v>15.00204697330559</v>
+        <v>329.7519419664886</v>
       </c>
       <c r="Y30" t="n">
-        <v>15.00204697330559</v>
+        <v>329.7519419664886</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15.00204697330559</v>
+        <v>650.6567863330264</v>
       </c>
       <c r="C31" t="n">
-        <v>15.00204697330559</v>
+        <v>481.7206034051195</v>
       </c>
       <c r="D31" t="n">
-        <v>15.00204697330559</v>
+        <v>331.6039639927837</v>
       </c>
       <c r="E31" t="n">
-        <v>15.00204697330559</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="F31" t="n">
-        <v>15.00204697330559</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="G31" t="n">
         <v>15.00204697330559</v>
@@ -6624,49 +6624,49 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K31" t="n">
-        <v>43.1759045242809</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L31" t="n">
-        <v>216.063482639416</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M31" t="n">
-        <v>401.7138139340726</v>
+        <v>373.5399563830973</v>
       </c>
       <c r="N31" t="n">
-        <v>587.3641452287293</v>
+        <v>559.190287677754</v>
       </c>
       <c r="O31" t="n">
-        <v>750.1023486652795</v>
+        <v>721.9284911143042</v>
       </c>
       <c r="P31" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="Q31" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="R31" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="S31" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="T31" t="n">
-        <v>575.4900818365147</v>
+        <v>650.6567863330264</v>
       </c>
       <c r="U31" t="n">
-        <v>575.4900818365147</v>
+        <v>650.6567863330264</v>
       </c>
       <c r="V31" t="n">
-        <v>575.4900818365147</v>
+        <v>650.6567863330264</v>
       </c>
       <c r="W31" t="n">
-        <v>386.07029682003</v>
+        <v>650.6567863330264</v>
       </c>
       <c r="X31" t="n">
-        <v>386.07029682003</v>
+        <v>650.6567863330264</v>
       </c>
       <c r="Y31" t="n">
-        <v>196.6505118035453</v>
+        <v>650.6567863330264</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>170.3628934706925</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="C32" t="n">
-        <v>170.3628934706925</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="D32" t="n">
-        <v>170.3628934706925</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="E32" t="n">
-        <v>170.3628934706925</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="F32" t="n">
-        <v>170.3628934706925</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="G32" t="n">
-        <v>15.00204697330559</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="H32" t="n">
         <v>15.00204697330559</v>
@@ -6700,52 +6700,52 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J32" t="n">
-        <v>21.03371160678461</v>
+        <v>21.03371160678473</v>
       </c>
       <c r="K32" t="n">
-        <v>80.8121315905891</v>
+        <v>80.81213159058922</v>
       </c>
       <c r="L32" t="n">
-        <v>191.8743094079181</v>
+        <v>191.8743094079182</v>
       </c>
       <c r="M32" t="n">
-        <v>347.1218190644752</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N32" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123827</v>
       </c>
       <c r="O32" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985581</v>
       </c>
       <c r="P32" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q32" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R32" t="n">
-        <v>738.6222485201467</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S32" t="n">
-        <v>738.6222485201467</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T32" t="n">
-        <v>738.6222485201467</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="U32" t="n">
-        <v>549.202463503662</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="V32" t="n">
-        <v>549.202463503662</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="W32" t="n">
-        <v>359.7826784871772</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="X32" t="n">
-        <v>359.7826784871772</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="Y32" t="n">
-        <v>170.3628934706925</v>
+        <v>750.1023486652796</v>
       </c>
     </row>
     <row r="33">
@@ -6779,49 +6779,49 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J33" t="n">
-        <v>15.00204697330539</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K33" t="n">
-        <v>67.13418877024193</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L33" t="n">
-        <v>183.5548280772647</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M33" t="n">
-        <v>338.7690911140241</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N33" t="n">
-        <v>512.5000587546599</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O33" t="n">
-        <v>649.2101578476346</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P33" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017061</v>
       </c>
       <c r="Q33" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R33" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S33" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T33" t="n">
-        <v>750.1023486652795</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="U33" t="n">
-        <v>560.6825636487947</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="V33" t="n">
-        <v>371.26277863231</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="W33" t="n">
-        <v>181.8429936158252</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="X33" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="Y33" t="n">
         <v>15.00204697330559</v>
@@ -6861,37 +6861,37 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7151088594234</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L34" t="n">
-        <v>216.063482639416</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M34" t="n">
-        <v>401.7138139340726</v>
+        <v>373.5399563830973</v>
       </c>
       <c r="N34" t="n">
-        <v>587.3641452287293</v>
+        <v>471.6341805242516</v>
       </c>
       <c r="O34" t="n">
-        <v>750.1023486652795</v>
+        <v>634.3723839608018</v>
       </c>
       <c r="P34" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="Q34" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="R34" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="S34" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="T34" t="n">
-        <v>560.6825636487947</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="U34" t="n">
-        <v>393.841617006275</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="V34" t="n">
         <v>204.4218319897903</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>393.8416170062753</v>
+        <v>520.5803211678658</v>
       </c>
       <c r="C35" t="n">
-        <v>204.4218319897905</v>
+        <v>331.160536151381</v>
       </c>
       <c r="D35" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="E35" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="F35" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="G35" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H35" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I35" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J35" t="n">
-        <v>21.03371160678497</v>
+        <v>21.03371160678496</v>
       </c>
       <c r="K35" t="n">
-        <v>80.81213159058967</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L35" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M35" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N35" t="n">
-        <v>509.4952041123831</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O35" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985583</v>
       </c>
       <c r="P35" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q35" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R35" t="n">
-        <v>738.6222485201473</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S35" t="n">
-        <v>738.6222485201473</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T35" t="n">
-        <v>549.2024635036624</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="U35" t="n">
-        <v>549.2024635036624</v>
+        <v>710.0001061843506</v>
       </c>
       <c r="V35" t="n">
-        <v>549.2024635036624</v>
+        <v>710.0001061843506</v>
       </c>
       <c r="W35" t="n">
-        <v>393.8416170062753</v>
+        <v>520.5803211678658</v>
       </c>
       <c r="X35" t="n">
-        <v>393.8416170062753</v>
+        <v>520.5803211678658</v>
       </c>
       <c r="Y35" t="n">
-        <v>393.8416170062753</v>
+        <v>520.5803211678658</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>554.70395526426</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="C36" t="n">
-        <v>469.7084696131274</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="D36" t="n">
-        <v>320.7740599518761</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="E36" t="n">
-        <v>161.5366049464206</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="F36" t="n">
-        <v>15.0020469733056</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G36" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H36" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I36" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J36" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K36" t="n">
-        <v>67.13418877024242</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L36" t="n">
-        <v>183.5548280772653</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M36" t="n">
-        <v>338.7690911140248</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N36" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O36" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P36" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017061</v>
       </c>
       <c r="Q36" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R36" t="n">
-        <v>722.9192922843281</v>
+        <v>722.9192922843276</v>
       </c>
       <c r="S36" t="n">
-        <v>722.9192922843281</v>
+        <v>722.9192922843276</v>
       </c>
       <c r="T36" t="n">
-        <v>722.9192922843281</v>
+        <v>722.9192922843276</v>
       </c>
       <c r="U36" t="n">
-        <v>722.9192922843281</v>
+        <v>533.4995072678429</v>
       </c>
       <c r="V36" t="n">
-        <v>722.9192922843281</v>
+        <v>344.0797222513581</v>
       </c>
       <c r="W36" t="n">
-        <v>722.9192922843281</v>
+        <v>341.9610131673412</v>
       </c>
       <c r="X36" t="n">
-        <v>722.9192922843281</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="Y36" t="n">
-        <v>722.9192922843281</v>
+        <v>152.5412281508565</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.0020469733056</v>
+        <v>362.3448392359971</v>
       </c>
       <c r="C37" t="n">
-        <v>15.0020469733056</v>
+        <v>362.3448392359971</v>
       </c>
       <c r="D37" t="n">
-        <v>15.0020469733056</v>
+        <v>362.3448392359971</v>
       </c>
       <c r="E37" t="n">
-        <v>15.0020469733056</v>
+        <v>362.3448392359971</v>
       </c>
       <c r="F37" t="n">
-        <v>15.0020469733056</v>
+        <v>362.3448392359971</v>
       </c>
       <c r="G37" t="n">
-        <v>15.0020469733056</v>
+        <v>193.6560157989121</v>
       </c>
       <c r="H37" t="n">
-        <v>15.0020469733056</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="I37" t="n">
-        <v>15.0020469733056</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="J37" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K37" t="n">
-        <v>43.17590452428121</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L37" t="n">
-        <v>216.0634826394163</v>
+        <v>279.6026869745584</v>
       </c>
       <c r="M37" t="n">
-        <v>401.7138139340731</v>
+        <v>465.2530182692151</v>
       </c>
       <c r="N37" t="n">
-        <v>587.3641452287299</v>
+        <v>650.9033495638718</v>
       </c>
       <c r="O37" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="P37" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="Q37" t="n">
-        <v>750.10234866528</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="R37" t="n">
-        <v>750.10234866528</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="S37" t="n">
-        <v>750.10234866528</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="T37" t="n">
-        <v>560.6825636487952</v>
+        <v>741.1844092689666</v>
       </c>
       <c r="U37" t="n">
-        <v>371.2627786323103</v>
+        <v>551.7646242524819</v>
       </c>
       <c r="V37" t="n">
-        <v>181.8429936158254</v>
+        <v>551.7646242524819</v>
       </c>
       <c r="W37" t="n">
-        <v>15.0020469733056</v>
+        <v>362.3448392359971</v>
       </c>
       <c r="X37" t="n">
-        <v>15.0020469733056</v>
+        <v>362.3448392359971</v>
       </c>
       <c r="Y37" t="n">
-        <v>15.0020469733056</v>
+        <v>362.3448392359971</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>170.3628934706926</v>
       </c>
       <c r="D38" t="n">
-        <v>170.3628934706926</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E38" t="n">
-        <v>170.3628934706926</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F38" t="n">
-        <v>170.3628934706926</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G38" t="n">
         <v>15.00204697330559</v>
@@ -7174,19 +7174,19 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J38" t="n">
-        <v>21.03371160678492</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K38" t="n">
-        <v>80.81213159058942</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L38" t="n">
         <v>191.8743094079184</v>
       </c>
       <c r="M38" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N38" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O38" t="n">
         <v>649.4845259985582</v>
@@ -7210,16 +7210,16 @@
         <v>549.2024635036621</v>
       </c>
       <c r="V38" t="n">
-        <v>359.7826784871773</v>
+        <v>549.2024635036621</v>
       </c>
       <c r="W38" t="n">
         <v>359.7826784871773</v>
       </c>
       <c r="X38" t="n">
-        <v>359.7826784871773</v>
+        <v>170.3628934706926</v>
       </c>
       <c r="Y38" t="n">
-        <v>359.7826784871773</v>
+        <v>170.3628934706926</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>15.00204697330559</v>
+        <v>301.4756378121077</v>
       </c>
       <c r="C39" t="n">
-        <v>15.00204697330559</v>
+        <v>301.4756378121077</v>
       </c>
       <c r="D39" t="n">
-        <v>15.00204697330559</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="E39" t="n">
-        <v>15.00204697330559</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="F39" t="n">
-        <v>15.00204697330559</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G39" t="n">
         <v>15.00204697330559</v>
@@ -7253,16 +7253,16 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J39" t="n">
-        <v>15.0020469733055</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K39" t="n">
-        <v>67.13418877024205</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L39" t="n">
-        <v>183.5548280772648</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M39" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N39" t="n">
         <v>512.50005875466</v>
@@ -7277,28 +7277,28 @@
         <v>750.1023486652796</v>
       </c>
       <c r="R39" t="n">
-        <v>722.9192922843276</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S39" t="n">
-        <v>722.9192922843276</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T39" t="n">
-        <v>533.4995072678429</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="U39" t="n">
-        <v>344.0797222513581</v>
+        <v>659.1107598486606</v>
       </c>
       <c r="V39" t="n">
-        <v>154.6599372348734</v>
+        <v>659.1107598486606</v>
       </c>
       <c r="W39" t="n">
-        <v>15.00204697330559</v>
+        <v>659.1107598486606</v>
       </c>
       <c r="X39" t="n">
-        <v>15.00204697330559</v>
+        <v>469.6909748321758</v>
       </c>
       <c r="Y39" t="n">
-        <v>15.00204697330559</v>
+        <v>469.6909748321758</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.00204697330559</v>
+        <v>481.7206034051195</v>
       </c>
       <c r="C40" t="n">
-        <v>15.00204697330559</v>
+        <v>481.7206034051195</v>
       </c>
       <c r="D40" t="n">
-        <v>15.00204697330559</v>
+        <v>331.6039639927837</v>
       </c>
       <c r="E40" t="n">
-        <v>15.00204697330559</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="F40" t="n">
-        <v>15.00204697330559</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="G40" t="n">
         <v>15.00204697330559</v>
@@ -7335,16 +7335,16 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7151088594234</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L40" t="n">
-        <v>279.6026869745584</v>
+        <v>100.3335179349383</v>
       </c>
       <c r="M40" t="n">
-        <v>465.2530182692151</v>
+        <v>285.983849229595</v>
       </c>
       <c r="N40" t="n">
-        <v>633.0454302264753</v>
+        <v>471.6341805242516</v>
       </c>
       <c r="O40" t="n">
         <v>634.3723839608018</v>
@@ -7353,31 +7353,31 @@
         <v>750.1023486652796</v>
       </c>
       <c r="Q40" t="n">
-        <v>750.1023486652796</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="R40" t="n">
-        <v>750.1023486652796</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="S40" t="n">
-        <v>750.1023486652796</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="T40" t="n">
-        <v>560.6825636487948</v>
+        <v>671.1403884216043</v>
       </c>
       <c r="U40" t="n">
-        <v>371.2627786323101</v>
+        <v>481.7206034051195</v>
       </c>
       <c r="V40" t="n">
-        <v>181.8429936158253</v>
+        <v>481.7206034051195</v>
       </c>
       <c r="W40" t="n">
-        <v>181.8429936158253</v>
+        <v>481.7206034051195</v>
       </c>
       <c r="X40" t="n">
-        <v>15.00204697330559</v>
+        <v>481.7206034051195</v>
       </c>
       <c r="Y40" t="n">
-        <v>15.00204697330559</v>
+        <v>481.7206034051195</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>204.4218319897903</v>
+        <v>359.7826784871773</v>
       </c>
       <c r="C41" t="n">
-        <v>204.4218319897903</v>
+        <v>359.7826784871773</v>
       </c>
       <c r="D41" t="n">
-        <v>204.4218319897903</v>
+        <v>170.3628934706926</v>
       </c>
       <c r="E41" t="n">
-        <v>204.4218319897903</v>
+        <v>170.3628934706926</v>
       </c>
       <c r="F41" t="n">
-        <v>204.4218319897903</v>
+        <v>170.3628934706926</v>
       </c>
       <c r="G41" t="n">
         <v>15.00204697330559</v>
@@ -7411,25 +7411,25 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J41" t="n">
-        <v>21.03371160678496</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K41" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L41" t="n">
         <v>191.8743094079184</v>
       </c>
       <c r="M41" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N41" t="n">
-        <v>509.4952041123829</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O41" t="n">
-        <v>649.4845259985583</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P41" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q41" t="n">
         <v>750.1023486652796</v>
@@ -7438,25 +7438,25 @@
         <v>738.6222485201469</v>
       </c>
       <c r="S41" t="n">
-        <v>583.2614020227599</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="T41" t="n">
-        <v>393.8416170062751</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="U41" t="n">
-        <v>204.4218319897903</v>
+        <v>549.2024635036621</v>
       </c>
       <c r="V41" t="n">
-        <v>204.4218319897903</v>
+        <v>359.7826784871773</v>
       </c>
       <c r="W41" t="n">
-        <v>204.4218319897903</v>
+        <v>359.7826784871773</v>
       </c>
       <c r="X41" t="n">
-        <v>204.4218319897903</v>
+        <v>359.7826784871773</v>
       </c>
       <c r="Y41" t="n">
-        <v>204.4218319897903</v>
+        <v>359.7826784871773</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>181.8429936158253</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C42" t="n">
-        <v>181.8429936158253</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D42" t="n">
-        <v>181.8429936158253</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E42" t="n">
-        <v>181.8429936158253</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F42" t="n">
-        <v>152.5412281508565</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G42" t="n">
         <v>15.00204697330559</v>
@@ -7490,13 +7490,13 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J42" t="n">
-        <v>15.0020469733055</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K42" t="n">
-        <v>67.13418877024205</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L42" t="n">
-        <v>183.5548280772648</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M42" t="n">
         <v>338.7690911140243</v>
@@ -7532,10 +7532,10 @@
         <v>181.8429936158253</v>
       </c>
       <c r="X42" t="n">
-        <v>181.8429936158253</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y42" t="n">
-        <v>181.8429936158253</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15.00204697330559</v>
+        <v>357.7253322484279</v>
       </c>
       <c r="C43" t="n">
-        <v>15.00204697330559</v>
+        <v>188.7891493205209</v>
       </c>
       <c r="D43" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="E43" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="F43" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="G43" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="H43" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="I43" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="J43" t="n">
         <v>15.00204697330559</v>
@@ -7575,10 +7575,10 @@
         <v>15.00204697330559</v>
       </c>
       <c r="L43" t="n">
-        <v>187.8896250884407</v>
+        <v>100.3335179349383</v>
       </c>
       <c r="M43" t="n">
-        <v>373.5399563830973</v>
+        <v>285.983849229595</v>
       </c>
       <c r="N43" t="n">
         <v>471.6341805242516</v>
@@ -7596,25 +7596,25 @@
         <v>750.1023486652796</v>
       </c>
       <c r="S43" t="n">
-        <v>750.1023486652796</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="T43" t="n">
         <v>560.6825636487948</v>
       </c>
       <c r="U43" t="n">
-        <v>371.2627786323101</v>
+        <v>547.1451172649126</v>
       </c>
       <c r="V43" t="n">
-        <v>181.8429936158253</v>
+        <v>547.1451172649126</v>
       </c>
       <c r="W43" t="n">
-        <v>15.00204697330559</v>
+        <v>547.1451172649126</v>
       </c>
       <c r="X43" t="n">
-        <v>15.00204697330559</v>
+        <v>547.1451172649126</v>
       </c>
       <c r="Y43" t="n">
-        <v>15.00204697330559</v>
+        <v>357.7253322484279</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>15.00204697330559</v>
+        <v>210.8831693494282</v>
       </c>
       <c r="C44" t="n">
-        <v>15.00204697330559</v>
+        <v>210.8831693494282</v>
       </c>
       <c r="D44" t="n">
-        <v>15.00204697330559</v>
+        <v>210.8831693494282</v>
       </c>
       <c r="E44" t="n">
-        <v>15.00204697330559</v>
+        <v>210.8831693494282</v>
       </c>
       <c r="F44" t="n">
-        <v>15.00204697330559</v>
+        <v>21.46338433294341</v>
       </c>
       <c r="G44" t="n">
-        <v>15.00204697330559</v>
+        <v>21.46338433294341</v>
       </c>
       <c r="H44" t="n">
-        <v>15.00204697330559</v>
+        <v>21.46338433294341</v>
       </c>
       <c r="I44" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="J44" t="n">
-        <v>21.03371160678496</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K44" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L44" t="n">
         <v>191.8743094079184</v>
       </c>
       <c r="M44" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N44" t="n">
-        <v>509.4952041123829</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O44" t="n">
-        <v>649.4845259985583</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P44" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q44" t="n">
         <v>750.1023486652796</v>
@@ -7675,25 +7675,25 @@
         <v>750.1023486652796</v>
       </c>
       <c r="S44" t="n">
-        <v>750.1023486652796</v>
+        <v>589.7227393823977</v>
       </c>
       <c r="T44" t="n">
-        <v>560.6825636487948</v>
+        <v>400.3029543659129</v>
       </c>
       <c r="U44" t="n">
-        <v>371.2627786323101</v>
+        <v>210.8831693494282</v>
       </c>
       <c r="V44" t="n">
-        <v>181.8429936158253</v>
+        <v>210.8831693494282</v>
       </c>
       <c r="W44" t="n">
-        <v>15.00204697330559</v>
+        <v>210.8831693494282</v>
       </c>
       <c r="X44" t="n">
-        <v>15.00204697330559</v>
+        <v>210.8831693494282</v>
       </c>
       <c r="Y44" t="n">
-        <v>15.00204697330559</v>
+        <v>210.8831693494282</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>299.0757861239715</v>
+        <v>397.9640582856523</v>
       </c>
       <c r="C45" t="n">
-        <v>299.0757861239715</v>
+        <v>223.5110290045253</v>
       </c>
       <c r="D45" t="n">
-        <v>299.0757861239715</v>
+        <v>223.5110290045253</v>
       </c>
       <c r="E45" t="n">
-        <v>299.0757861239715</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="F45" t="n">
-        <v>152.5412281508565</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="G45" t="n">
-        <v>15.00204697330559</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="H45" t="n">
-        <v>15.00204697330559</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I45" t="n">
         <v>15.00204697330559</v>
@@ -7730,7 +7730,7 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K45" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L45" t="n">
         <v>183.5548280772649</v>
@@ -7751,28 +7751,28 @@
         <v>750.1023486652796</v>
       </c>
       <c r="R45" t="n">
-        <v>722.9192922843276</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S45" t="n">
-        <v>571.6362168389239</v>
+        <v>598.8192732198759</v>
       </c>
       <c r="T45" t="n">
-        <v>382.2164318224392</v>
+        <v>598.8192732198759</v>
       </c>
       <c r="U45" t="n">
-        <v>299.0757861239715</v>
+        <v>598.8192732198759</v>
       </c>
       <c r="V45" t="n">
-        <v>299.0757861239715</v>
+        <v>598.8192732198759</v>
       </c>
       <c r="W45" t="n">
-        <v>299.0757861239715</v>
+        <v>598.8192732198759</v>
       </c>
       <c r="X45" t="n">
-        <v>299.0757861239715</v>
+        <v>566.1793953057204</v>
       </c>
       <c r="Y45" t="n">
-        <v>299.0757861239715</v>
+        <v>566.1793953057204</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.00204697330559</v>
+        <v>481.7206034051195</v>
       </c>
       <c r="C46" t="n">
-        <v>15.00204697330559</v>
+        <v>481.7206034051195</v>
       </c>
       <c r="D46" t="n">
-        <v>15.00204697330559</v>
+        <v>331.6039639927837</v>
       </c>
       <c r="E46" t="n">
-        <v>15.00204697330559</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="F46" t="n">
-        <v>15.00204697330559</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="G46" t="n">
         <v>15.00204697330559</v>
@@ -7809,19 +7809,19 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K46" t="n">
-        <v>15.00204697330559</v>
+        <v>43.17590452428098</v>
       </c>
       <c r="L46" t="n">
-        <v>187.8896250884407</v>
+        <v>216.063482639416</v>
       </c>
       <c r="M46" t="n">
-        <v>373.5399563830973</v>
+        <v>401.7138139340727</v>
       </c>
       <c r="N46" t="n">
-        <v>559.190287677754</v>
+        <v>587.3641452287294</v>
       </c>
       <c r="O46" t="n">
-        <v>721.9284911143042</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="P46" t="n">
         <v>750.1023486652796</v>
@@ -7836,22 +7836,22 @@
         <v>750.1023486652796</v>
       </c>
       <c r="T46" t="n">
-        <v>560.6825636487948</v>
+        <v>671.1403884216043</v>
       </c>
       <c r="U46" t="n">
-        <v>371.2627786323101</v>
+        <v>671.1403884216043</v>
       </c>
       <c r="V46" t="n">
-        <v>204.4218319897903</v>
+        <v>671.1403884216043</v>
       </c>
       <c r="W46" t="n">
-        <v>15.00204697330559</v>
+        <v>671.1403884216043</v>
       </c>
       <c r="X46" t="n">
-        <v>15.00204697330559</v>
+        <v>671.1403884216043</v>
       </c>
       <c r="Y46" t="n">
-        <v>15.00204697330559</v>
+        <v>481.7206034051195</v>
       </c>
     </row>
   </sheetData>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>151.4130399743006</v>
       </c>
       <c r="K5" t="n">
-        <v>207.6924568072401</v>
+        <v>175.6778686086498</v>
       </c>
       <c r="L5" t="n">
-        <v>220.3863511654829</v>
+        <v>180.6694235815945</v>
       </c>
       <c r="M5" t="n">
-        <v>213.2329488237261</v>
+        <v>169.0402142539849</v>
       </c>
       <c r="N5" t="n">
-        <v>212.0228683600069</v>
+        <v>167.1150491428458</v>
       </c>
       <c r="O5" t="n">
-        <v>213.6771431876599</v>
+        <v>171.2719629367221</v>
       </c>
       <c r="P5" t="n">
-        <v>217.2179939323683</v>
+        <v>181.0261536667116</v>
       </c>
       <c r="Q5" t="n">
-        <v>211.7810071745229</v>
+        <v>184.6024423811853</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>121.9109554290984</v>
+        <v>109.188495544711</v>
       </c>
       <c r="K6" t="n">
-        <v>129.4209731207054</v>
+        <v>107.6762627746913</v>
       </c>
       <c r="L6" t="n">
-        <v>127.2320242896083</v>
+        <v>97.99357776546371</v>
       </c>
       <c r="M6" t="n">
-        <v>128.9213791058854</v>
+        <v>94.8014911006368</v>
       </c>
       <c r="N6" t="n">
-        <v>117.7793576096987</v>
+        <v>82.75641769584666</v>
       </c>
       <c r="O6" t="n">
-        <v>130.189339722084</v>
+        <v>98.15019198760726</v>
       </c>
       <c r="P6" t="n">
-        <v>124.0167725625941</v>
+        <v>98.30253188451704</v>
       </c>
       <c r="Q6" t="n">
-        <v>133.325358891825</v>
+        <v>116.1360699788121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8379,19 +8379,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>128.3850595911183</v>
+        <v>111.6006815361376</v>
       </c>
       <c r="M7" t="n">
-        <v>132.0728494613791</v>
+        <v>114.376076145858</v>
       </c>
       <c r="N7" t="n">
-        <v>120.995557444028</v>
+        <v>103.7195738437167</v>
       </c>
       <c r="O7" t="n">
-        <v>132.2772526319831</v>
+        <v>116.3200855781222</v>
       </c>
       <c r="P7" t="n">
-        <v>132.4405575256453</v>
+        <v>118.7864444252746</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>15.37922103265842</v>
+        <v>19.00792621918457</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8850,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7437663446525</v>
+        <v>64.46431731077686</v>
       </c>
       <c r="L13" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>171.4142040457083</v>
+        <v>155.7185244657182</v>
       </c>
       <c r="N13" t="n">
-        <v>99.67938739116963</v>
+        <v>148.0447044772793</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P13" t="n">
-        <v>18.10760906709389</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>15.37922103265842</v>
+        <v>19.00792621918457</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9087,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>14.10430989402855</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>162.4747015415544</v>
+        <v>159.4104580922941</v>
       </c>
       <c r="M16" t="n">
-        <v>171.4142040457084</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>163.8604018711117</v>
+        <v>102.0733218168278</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
-        <v>46.56605103777624</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>15.37922103265839</v>
+        <v>19.00792621918454</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9324,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>14.10430989402852</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>162.4747015415544</v>
+        <v>159.4104580922941</v>
       </c>
       <c r="M19" t="n">
-        <v>171.4142040457084</v>
+        <v>155.7185244657182</v>
       </c>
       <c r="N19" t="n">
-        <v>163.8604018711116</v>
+        <v>148.0447044772793</v>
       </c>
       <c r="O19" t="n">
-        <v>163.0416663658825</v>
+        <v>3.210952374594768</v>
       </c>
       <c r="P19" t="n">
-        <v>46.56605103777609</v>
+        <v>93.14737017915883</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>15.37922103265839</v>
+        <v>19.00792621918457</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9561,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>14.10430989402852</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>162.4747015415544</v>
+        <v>159.4104580922942</v>
       </c>
       <c r="M22" t="n">
-        <v>171.4142040457084</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>163.8604018711117</v>
+        <v>148.0447044772794</v>
       </c>
       <c r="O22" t="n">
-        <v>163.0416663658825</v>
+        <v>117.0702837054309</v>
       </c>
       <c r="P22" t="n">
-        <v>46.56605103777609</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9798,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L25" t="n">
-        <v>98.29368706161277</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>171.4142040457084</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N25" t="n">
-        <v>163.8604018711117</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O25" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P25" t="n">
-        <v>18.10760906709386</v>
+        <v>46.56605103777598</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -10035,13 +10035,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>14.10430989402852</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>171.4142040457083</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N28" t="n">
         <v>163.8604018711116</v>
@@ -10050,7 +10050,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>46.56605103777598</v>
+        <v>116.4012961287065</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10272,13 +10272,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>42.56275186471065</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L31" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>171.4142040457083</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N31" t="n">
         <v>163.8604018711116</v>
@@ -10287,7 +10287,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>18.10760906709386</v>
+        <v>46.56605103777609</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10509,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L34" t="n">
-        <v>98.29368706161254</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>171.4142040457083</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N34" t="n">
-        <v>163.8604018711116</v>
+        <v>75.41988959484661</v>
       </c>
       <c r="O34" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
-        <v>18.10760906709386</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10746,19 +10746,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>42.56275186471095</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>171.4142040457085</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N37" t="n">
-        <v>163.8604018711117</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O37" t="n">
-        <v>163.0416663658825</v>
+        <v>98.86065188594071</v>
       </c>
       <c r="P37" t="n">
         <v>18.10760906709386</v>
@@ -10983,19 +10983,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L40" t="n">
-        <v>162.4747015415544</v>
+        <v>74.0341892652894</v>
       </c>
       <c r="M40" t="n">
         <v>171.4142040457084</v>
       </c>
       <c r="N40" t="n">
-        <v>145.8220995101051</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
         <v>135.0065633140411</v>
@@ -11223,13 +11223,13 @@
         <v>14.10430989402852</v>
       </c>
       <c r="L43" t="n">
-        <v>162.4747015415544</v>
+        <v>74.0341892652894</v>
       </c>
       <c r="M43" t="n">
         <v>171.4142040457084</v>
       </c>
       <c r="N43" t="n">
-        <v>75.41988959484661</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O43" t="n">
         <v>163.0416663658825</v>
@@ -11457,7 +11457,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>14.10430989402852</v>
+        <v>42.56275186471073</v>
       </c>
       <c r="L46" t="n">
         <v>162.4747015415544</v>
@@ -11472,7 +11472,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
-        <v>46.56605103777609</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -22798,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.205276597216</v>
+        <v>414.9535970028755</v>
       </c>
       <c r="H5" t="n">
-        <v>338.4766804901291</v>
+        <v>335.8991668445894</v>
       </c>
       <c r="I5" t="n">
-        <v>206.7185275323332</v>
+        <v>197.0156499715211</v>
       </c>
       <c r="J5" t="n">
-        <v>3.677415772383833</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>143.7469885559196</v>
+        <v>127.9374202379282</v>
       </c>
       <c r="S5" t="n">
-        <v>206.7991789191659</v>
+        <v>201.0640301631317</v>
       </c>
       <c r="T5" t="n">
-        <v>222.6692143959409</v>
+        <v>221.5674869717153</v>
       </c>
       <c r="U5" t="n">
-        <v>251.337856034403</v>
+        <v>251.3177216668557</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22877,13 +22877,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2913709749108</v>
+        <v>137.1567105202597</v>
       </c>
       <c r="H6" t="n">
-        <v>111.7318218389696</v>
+        <v>110.4312853427336</v>
       </c>
       <c r="I6" t="n">
-        <v>87.60124873670773</v>
+        <v>82.96491290770996</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>96.92019625101291</v>
+        <v>88.55943574205845</v>
       </c>
       <c r="S6" t="n">
-        <v>170.7145785273046</v>
+        <v>168.2133196437625</v>
       </c>
       <c r="T6" t="n">
-        <v>199.9545429621571</v>
+        <v>199.4117668313484</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9379514106919</v>
+        <v>225.9290921702544</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9472617458922</v>
+        <v>167.8343669442505</v>
       </c>
       <c r="H7" t="n">
-        <v>161.8384831884389</v>
+        <v>160.8347457702066</v>
       </c>
       <c r="I7" t="n">
-        <v>154.13576708753</v>
+        <v>150.7407125072514</v>
       </c>
       <c r="J7" t="n">
-        <v>90.2683449082184</v>
+        <v>82.28668243215228</v>
       </c>
       <c r="K7" t="n">
-        <v>17.19030011133392</v>
+        <v>4.07397679332891</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22986,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.50128934850892</v>
+        <v>73.04788918558684</v>
       </c>
       <c r="R7" t="n">
-        <v>175.3276885430412</v>
+        <v>170.2515277346803</v>
       </c>
       <c r="S7" t="n">
-        <v>223.2547192797899</v>
+        <v>221.2872707820892</v>
       </c>
       <c r="T7" t="n">
-        <v>227.7587959927699</v>
+        <v>227.2764272948464</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3166447594418</v>
+        <v>286.3104868611704</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>215.9514149651522</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,19 +23266,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>194.404782905942</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>219.3504585753917</v>
+        <v>240.0936190433831</v>
       </c>
       <c r="G11" t="n">
-        <v>413.097833230058</v>
+        <v>413.1696173863946</v>
       </c>
       <c r="H11" t="n">
-        <v>151.7212889301279</v>
+        <v>314.8403106227116</v>
       </c>
       <c r="I11" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>11.36529914368137</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>158.7758131900531</v>
+        <v>160.4115946525719</v>
       </c>
       <c r="T11" t="n">
-        <v>25.918293889887</v>
+        <v>213.75811620057</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1750032975372</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>219.4555119577252</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>151.1308911647226</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23351,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2021972754605</v>
       </c>
       <c r="H12" t="n">
-        <v>100.8417573507397</v>
+        <v>101.2126968995411</v>
       </c>
       <c r="I12" t="n">
-        <v>48.77881175550658</v>
+        <v>50.10118934773676</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>26.91122581714239</v>
+        <v>29.29588533250677</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>7.884010625681469</v>
+        <v>28.78198192262312</v>
       </c>
       <c r="U12" t="n">
-        <v>38.33818124377115</v>
+        <v>62.66556187981536</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>64.16939599459982</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>38.90026907897598</v>
       </c>
     </row>
     <row r="13">
@@ -23421,25 +23421,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>137.9948498111559</v>
+        <v>139.6856258132726</v>
       </c>
       <c r="H13" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>125.7072197708667</v>
+        <v>126.6755586201103</v>
       </c>
       <c r="J13" t="n">
-        <v>23.43375830553086</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>6.039384816041505</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>134.2701942625523</v>
       </c>
       <c r="S13" t="n">
-        <v>206.7802557954962</v>
+        <v>207.3414122568022</v>
       </c>
       <c r="T13" t="n">
-        <v>223.7196734901001</v>
+        <v>223.8572548864558</v>
       </c>
       <c r="U13" t="n">
-        <v>98.7394943271305</v>
+        <v>286.2668378517016</v>
       </c>
       <c r="V13" t="n">
-        <v>64.61205615750822</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>98.99741117027122</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,25 +23497,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>211.4656537385944</v>
+        <v>198.4904650726792</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>228.6575765906177</v>
       </c>
       <c r="F14" t="n">
-        <v>219.3504585753915</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.097833230058</v>
+        <v>413.1696173863946</v>
       </c>
       <c r="H14" t="n">
-        <v>316.8938261062223</v>
+        <v>317.6289855973038</v>
       </c>
       <c r="I14" t="n">
-        <v>125.4713171199747</v>
+        <v>128.238775807139</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>15.8745106541563</v>
       </c>
       <c r="S14" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>25.91829388988688</v>
+        <v>46.97568950224158</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1750032975372</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23576,25 +23576,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>38.80365095438356</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>134.9587696276523</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.2021972754605</v>
       </c>
       <c r="H15" t="n">
-        <v>100.8417573507397</v>
+        <v>101.2126968995411</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>50.10118934773676</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>26.91122581714239</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>195.4095977920013</v>
+        <v>28.78198192262312</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8637684100909</v>
+        <v>225.8662952462544</v>
       </c>
       <c r="V15" t="n">
-        <v>45.27499998310537</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>64.16939599459971</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>38.90026907897598</v>
       </c>
     </row>
     <row r="16">
@@ -23661,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>98.84374567467653</v>
+        <v>167.0341351039889</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.7199572267894</v>
       </c>
       <c r="I16" t="n">
-        <v>125.7072197708667</v>
+        <v>126.6755586201103</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>25.71029132565417</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>6.039384816041505</v>
       </c>
       <c r="R16" t="n">
-        <v>132.8223696106904</v>
+        <v>134.2701942625523</v>
       </c>
       <c r="S16" t="n">
-        <v>206.7802557954962</v>
+        <v>207.3414122568022</v>
       </c>
       <c r="T16" t="n">
-        <v>223.7196734901001</v>
+        <v>76.95529345056823</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2650814934503</v>
+        <v>119.4844111533732</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>85.35521662549962</v>
       </c>
       <c r="W16" t="n">
-        <v>98.99741117027111</v>
+        <v>119.7405716382626</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23737,22 +23737,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>172.126029612003</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>194.4047829059419</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.097833230058</v>
+        <v>246.3871906880662</v>
       </c>
       <c r="H17" t="n">
-        <v>316.8938261062223</v>
+        <v>317.6289855973038</v>
       </c>
       <c r="I17" t="n">
-        <v>125.4713171199747</v>
+        <v>128.238775807139</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>160.4115946525719</v>
       </c>
       <c r="T17" t="n">
-        <v>213.4438810562068</v>
+        <v>46.97568950224158</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1750032975372</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>160.9698317718065</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>218.2135179356817</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23825,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2021972754605</v>
       </c>
       <c r="H18" t="n">
-        <v>100.8417573507397</v>
+        <v>101.2126968995411</v>
       </c>
       <c r="I18" t="n">
-        <v>48.77881175550657</v>
+        <v>50.10118934773675</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.29588533250676</v>
       </c>
       <c r="S18" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>195.4095977920013</v>
+        <v>195.5644086209515</v>
       </c>
       <c r="U18" t="n">
-        <v>38.33818124377103</v>
+        <v>62.66556187981539</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>113.4336718019675</v>
+        <v>84.91255646259123</v>
       </c>
       <c r="X18" t="n">
-        <v>18.24739803715758</v>
+        <v>38.9905585051491</v>
       </c>
       <c r="Y18" t="n">
-        <v>18.15710861098447</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>13.04955348360892</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,19 +23901,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0341351039889</v>
       </c>
       <c r="H19" t="n">
-        <v>153.4336708318196</v>
+        <v>153.7199572267894</v>
       </c>
       <c r="I19" t="n">
-        <v>125.7072197708667</v>
+        <v>126.6755586201103</v>
       </c>
       <c r="J19" t="n">
-        <v>23.43375830553084</v>
+        <v>25.71029132565415</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>96.13519656368081</v>
+        <v>134.2701942625523</v>
       </c>
       <c r="S19" t="n">
-        <v>206.7802557954962</v>
+        <v>207.3414122568022</v>
       </c>
       <c r="T19" t="n">
-        <v>36.1940863237802</v>
+        <v>82.99467826660972</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2668378517016</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23955,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>58.92722869070877</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.0590661857749</v>
+        <v>51.80222665376641</v>
       </c>
     </row>
     <row r="20">
@@ -23980,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>219.3504585753915</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>225.5722460637381</v>
+        <v>413.1696173863946</v>
       </c>
       <c r="H20" t="n">
-        <v>316.8938261062223</v>
+        <v>317.6289855973038</v>
       </c>
       <c r="I20" t="n">
-        <v>125.4713171199747</v>
+        <v>128.238775807139</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>4.968575157639862</v>
+        <v>160.4115946525719</v>
       </c>
       <c r="T20" t="n">
-        <v>25.91829388988683</v>
+        <v>213.75811620057</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1692605650303</v>
+        <v>84.39257659920884</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>160.9698317718065</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>182.4585420190846</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>238.7036498967378</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24050,25 +24050,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>114.8594023494652</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>100.8417573507397</v>
+        <v>101.2126968995411</v>
       </c>
       <c r="I21" t="n">
-        <v>48.77881175550657</v>
+        <v>50.10118934773676</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>26.91122581714238</v>
+        <v>29.29588533250677</v>
       </c>
       <c r="S21" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>195.4095977920013</v>
+        <v>195.5644086209515</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8637684100909</v>
+        <v>225.8662952462544</v>
       </c>
       <c r="V21" t="n">
-        <v>45.27499998310532</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>64.16939599459965</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>18.24739803715752</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>40.51015860120984</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>13.04955348360889</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.0019352027142</v>
+        <v>0.2517084056605086</v>
       </c>
       <c r="H22" t="n">
-        <v>153.4336708318196</v>
+        <v>153.7199572267894</v>
       </c>
       <c r="I22" t="n">
-        <v>125.7072197708667</v>
+        <v>126.6755586201103</v>
       </c>
       <c r="J22" t="n">
-        <v>23.43375830553084</v>
+        <v>25.24229253633576</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>6.039384816041505</v>
       </c>
       <c r="R22" t="n">
-        <v>132.8223696106904</v>
+        <v>134.2701942625523</v>
       </c>
       <c r="S22" t="n">
-        <v>193.5662738114599</v>
+        <v>40.55898555847378</v>
       </c>
       <c r="T22" t="n">
-        <v>223.7196734901001</v>
+        <v>223.8572548864558</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2668378517016</v>
       </c>
       <c r="V22" t="n">
-        <v>64.61205615750805</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>38.1840682227172</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.05906618577484</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>217.5613044873861</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24253,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S23" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T23" t="n">
-        <v>25.9182938898868</v>
+        <v>25.91829388988691</v>
       </c>
       <c r="U23" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V23" t="n">
-        <v>140.2266713038149</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W23" t="n">
-        <v>195.4337306849999</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>182.2055135121491</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24284,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>5.414950357255464</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>83.11428573928391</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>48.77881175550657</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>149.7702446909496</v>
@@ -24341,13 +24341,13 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U24" t="n">
-        <v>38.33818124377095</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V24" t="n">
-        <v>45.27499998310529</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>64.16939599459963</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24369,10 +24369,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24408,31 +24408,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S25" t="n">
-        <v>19.25466862917625</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T25" t="n">
         <v>223.7196734901001</v>
       </c>
       <c r="U25" t="n">
-        <v>98.7394943271303</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V25" t="n">
-        <v>64.61205615750802</v>
+        <v>197.8320368200411</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027114</v>
       </c>
       <c r="X25" t="n">
-        <v>60.5371182129426</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>31.05906618577492</v>
       </c>
     </row>
     <row r="26">
@@ -24445,22 +24445,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>358.8761677849662</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>167.1574544543631</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>225.5722460637382</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H26" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399024</v>
       </c>
       <c r="I26" t="n">
         <v>125.4713171199747</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T26" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1692605650303</v>
+        <v>97.3620225326172</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24508,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121491</v>
       </c>
       <c r="Y26" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24539,7 +24539,7 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H27" t="n">
-        <v>100.8417573507397</v>
+        <v>47.30479404482723</v>
       </c>
       <c r="I27" t="n">
         <v>48.77881175550657</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S27" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T27" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681356</v>
       </c>
       <c r="U27" t="n">
-        <v>38.33818124377106</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V27" t="n">
-        <v>94.53927579047323</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>64.16939599459974</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>18.15710861098449</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24645,31 +24645,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S28" t="n">
-        <v>19.25466862917636</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T28" t="n">
-        <v>36.19408632378023</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U28" t="n">
         <v>286.2650814934503</v>
       </c>
       <c r="V28" t="n">
-        <v>64.61205615750814</v>
+        <v>64.61205615750811</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027111</v>
       </c>
       <c r="X28" t="n">
-        <v>60.53711821294272</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>49.06159136546344</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>200.1003545949131</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24694,10 +24694,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H29" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399024</v>
       </c>
       <c r="I29" t="n">
         <v>125.4713171199747</v>
@@ -24730,19 +24730,19 @@
         <v>11.36529914368134</v>
       </c>
       <c r="S29" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>213.4438810562068</v>
+        <v>207.0471570701654</v>
       </c>
       <c r="U29" t="n">
-        <v>63.64367339871046</v>
+        <v>63.64367339871043</v>
       </c>
       <c r="V29" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24770,7 +24770,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>136.1637893657753</v>
@@ -24809,19 +24809,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T30" t="n">
-        <v>19.39294395767897</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U30" t="n">
-        <v>38.33818124377106</v>
+        <v>38.33818124377103</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>218.6160846674045</v>
       </c>
       <c r="W30" t="n">
-        <v>64.16939599459974</v>
+        <v>64.16939599459971</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>153.4336708318196</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>132.8223696106904</v>
@@ -24891,7 +24891,7 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T31" t="n">
-        <v>50.853529329623</v>
+        <v>128.6116489550152</v>
       </c>
       <c r="U31" t="n">
         <v>286.2650814934503</v>
@@ -24900,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>98.99741117027114</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.05906618577492</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24919,10 +24919,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>200.100354594913</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24931,10 +24931,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>259.290595197645</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H32" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399024</v>
       </c>
       <c r="I32" t="n">
         <v>125.4713171199747</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S32" t="n">
         <v>158.7758131900531</v>
@@ -24973,19 +24973,19 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U32" t="n">
-        <v>63.64367339871046</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25049,22 +25049,22 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T33" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681356</v>
       </c>
       <c r="U33" t="n">
-        <v>38.33818124377106</v>
+        <v>38.33818124377103</v>
       </c>
       <c r="V33" t="n">
-        <v>45.2749999831054</v>
+        <v>45.27499998310537</v>
       </c>
       <c r="W33" t="n">
-        <v>64.16939599459974</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>40.60044802738304</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>40.51015860120984</v>
       </c>
     </row>
     <row r="34">
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>132.8223696106904</v>
@@ -25128,16 +25128,16 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T34" t="n">
-        <v>36.19408632378023</v>
+        <v>61.89021848785134</v>
       </c>
       <c r="U34" t="n">
-        <v>121.0925443173558</v>
+        <v>98.73949432713039</v>
       </c>
       <c r="V34" t="n">
-        <v>64.61205615750814</v>
+        <v>64.61205615750811</v>
       </c>
       <c r="W34" t="n">
-        <v>98.99741117027114</v>
+        <v>98.99741117027111</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,10 +25156,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>177.7473046046875</v>
+        <v>177.7473046046877</v>
       </c>
       <c r="D35" t="n">
-        <v>167.1574544543629</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25174,7 +25174,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I35" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,22 +25201,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S35" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T35" t="n">
-        <v>25.91829388988677</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1692605650303</v>
+        <v>211.4680405089106</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>195.4337306849998</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25232,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>88.56296819369443</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>100.8417573507397</v>
@@ -25289,16 +25289,16 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377103</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310537</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>249.5974611677428</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715758</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25326,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J37" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>132.8223696106904</v>
@@ -25365,16 +25365,16 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T37" t="n">
-        <v>36.19408632378008</v>
+        <v>218.2339956615961</v>
       </c>
       <c r="U37" t="n">
-        <v>98.73949432713027</v>
+        <v>98.73949432713039</v>
       </c>
       <c r="V37" t="n">
-        <v>64.61205615750799</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>121.3504611604964</v>
+        <v>98.99741117027111</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>195.2082544971607</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>200.8758035882698</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>259.2905951976449</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H38" t="n">
         <v>316.8938261062223</v>
@@ -25450,13 +25450,13 @@
         <v>63.64367339871043</v>
       </c>
       <c r="V38" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121491</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25469,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25484,7 +25484,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>100.8417573507397</v>
@@ -25517,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S39" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T39" t="n">
-        <v>7.884010625681356</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U39" t="n">
-        <v>38.33818124377103</v>
+        <v>135.7820954816381</v>
       </c>
       <c r="V39" t="n">
-        <v>45.27499998310537</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>113.4336718019675</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715758</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25554,16 +25554,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>153.4336708318196</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>132.8223696106904</v>
@@ -25602,19 +25602,19 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T40" t="n">
-        <v>36.1940863237802</v>
+        <v>148.8904150227073</v>
       </c>
       <c r="U40" t="n">
         <v>98.73949432713039</v>
       </c>
       <c r="V40" t="n">
-        <v>64.61205615750811</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>60.53711821294263</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25633,7 +25633,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25642,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>225.5722460637381</v>
+        <v>259.2905951976449</v>
       </c>
       <c r="H41" t="n">
         <v>316.8938261062223</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>4.968575157639975</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T41" t="n">
-        <v>25.91829388988688</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U41" t="n">
         <v>63.64367339871043</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25718,10 +25718,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>116.0604645830647</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H42" t="n">
         <v>100.8417573507397</v>
@@ -25772,7 +25772,7 @@
         <v>64.16939599459971</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>40.60044802738295</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25788,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25809,7 +25809,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J43" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>132.8223696106904</v>
       </c>
       <c r="S43" t="n">
-        <v>206.7802557954962</v>
+        <v>19.25466862917634</v>
       </c>
       <c r="T43" t="n">
-        <v>36.1940863237802</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U43" t="n">
-        <v>98.73949432713039</v>
+        <v>272.8630095734069</v>
       </c>
       <c r="V43" t="n">
-        <v>64.61205615750811</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>121.3504611604965</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>31.0590661857749</v>
       </c>
     </row>
     <row r="44">
@@ -25876,7 +25876,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G44" t="n">
         <v>413.097833230058</v>
@@ -25885,7 +25885,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I44" t="n">
-        <v>125.4713171199747</v>
+        <v>119.0745931339333</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>11.36529914368134</v>
       </c>
       <c r="S44" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>25.91829388988688</v>
@@ -25924,10 +25924,10 @@
         <v>63.64367339871043</v>
       </c>
       <c r="V44" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>184.0684315413185</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H45" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I45" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>7.884010625681356</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U45" t="n">
-        <v>143.5545291686079</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26009,7 +26009,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>173.4595060684636</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26028,16 +26028,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>153.4336708318196</v>
@@ -26076,22 +26076,22 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T46" t="n">
-        <v>36.1940863237802</v>
+        <v>145.5473328488615</v>
       </c>
       <c r="U46" t="n">
-        <v>98.73949432713039</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V46" t="n">
-        <v>86.96510614773348</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>98.99741117027111</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>31.0590661857749</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>349977.7900833987</v>
+        <v>345440.7899613726</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>478226.4697685515</v>
+        <v>460991.0210854192</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>478226.4697685516</v>
+        <v>460991.021085419</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>478226.4697685516</v>
+        <v>460991.0210854189</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>478226.4697685517</v>
+        <v>460991.0210854193</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>478226.4697685518</v>
+        <v>478226.4697685516</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>478226.4697685518</v>
+        <v>478226.4697685515</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>478226.4697685516</v>
+        <v>478226.4697685517</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>478226.4697685516</v>
+        <v>478226.4697685515</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>478226.4697685517</v>
+        <v>478226.4697685516</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>98194.643053899</v>
+        <v>98194.64305389898</v>
       </c>
       <c r="C2" t="n">
-        <v>98250.0406156535</v>
+        <v>100436.2269115279</v>
       </c>
       <c r="D2" t="n">
         <v>105000.0316666391</v>
       </c>
       <c r="E2" t="n">
-        <v>162397.4547967403</v>
+        <v>156563.0300299674</v>
       </c>
       <c r="F2" t="n">
-        <v>162397.4547967403</v>
+        <v>156563.0300299674</v>
       </c>
       <c r="G2" t="n">
-        <v>162397.4547967403</v>
+        <v>156563.0300299674</v>
       </c>
       <c r="H2" t="n">
-        <v>162397.4547967404</v>
+        <v>156563.0300299674</v>
       </c>
       <c r="I2" t="n">
         <v>162397.4547967404</v>
       </c>
       <c r="J2" t="n">
-        <v>162397.4547967403</v>
+        <v>162397.4547967404</v>
       </c>
       <c r="K2" t="n">
         <v>162397.4547967403</v>
@@ -26346,7 +26346,7 @@
         <v>162397.4547967403</v>
       </c>
       <c r="M2" t="n">
-        <v>162397.4547967404</v>
+        <v>162397.4547967403</v>
       </c>
       <c r="N2" t="n">
         <v>162397.4547967403</v>
@@ -26355,7 +26355,7 @@
         <v>162397.4547967403</v>
       </c>
       <c r="P2" t="n">
-        <v>162397.4547967404</v>
+        <v>162397.4547967402</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>22175.99473096512</v>
       </c>
       <c r="C3" t="n">
-        <v>1120.059259892539</v>
+        <v>58128.56982384732</v>
       </c>
       <c r="D3" t="n">
-        <v>180306.5215501605</v>
+        <v>126690.4669334138</v>
       </c>
       <c r="E3" t="n">
-        <v>308010.4237336575</v>
+        <v>287471.1602373267</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>18957.36063447883</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>46732.12642419559</v>
+        <v>41562.84786293023</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,40 +26420,40 @@
         <v>66348.57580579144</v>
       </c>
       <c r="C4" t="n">
-        <v>66144.33941595512</v>
+        <v>55291.68999473639</v>
       </c>
       <c r="D4" t="n">
         <v>29212.98088374246</v>
       </c>
       <c r="E4" t="n">
+        <v>8842.448855080571</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8842.448855080571</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8842.448855080567</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8842.448855080573</v>
+      </c>
+      <c r="I4" t="n">
         <v>9240.880119453523</v>
       </c>
-      <c r="F4" t="n">
-        <v>9240.880119453528</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
+        <v>9240.880119453524</v>
+      </c>
+      <c r="K4" t="n">
         <v>9240.880119453526</v>
       </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
+        <v>9240.880119453524</v>
+      </c>
+      <c r="M4" t="n">
         <v>9240.880119453526</v>
       </c>
-      <c r="I4" t="n">
-        <v>9240.880119453526</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9240.880119453523</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9240.880119453523</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9240.880119453523</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9240.88011945353</v>
-      </c>
       <c r="N4" t="n">
-        <v>9240.880119453526</v>
+        <v>9240.880119453524</v>
       </c>
       <c r="O4" t="n">
         <v>9240.880119453524</v>
@@ -26472,25 +26472,25 @@
         <v>34129.29174257201</v>
       </c>
       <c r="C5" t="n">
-        <v>34156.10619264532</v>
+        <v>35520.90171285526</v>
       </c>
       <c r="D5" t="n">
         <v>38745.80483114667</v>
       </c>
       <c r="E5" t="n">
-        <v>23358.20041161356</v>
+        <v>21707.74872138573</v>
       </c>
       <c r="F5" t="n">
-        <v>23358.20041161356</v>
+        <v>21707.74872138573</v>
       </c>
       <c r="G5" t="n">
+        <v>21707.74872138574</v>
+      </c>
+      <c r="H5" t="n">
+        <v>21707.74872138574</v>
+      </c>
+      <c r="I5" t="n">
         <v>23358.20041161357</v>
-      </c>
-      <c r="H5" t="n">
-        <v>23358.20041161357</v>
-      </c>
-      <c r="I5" t="n">
-        <v>23358.20041161358</v>
       </c>
       <c r="J5" t="n">
         <v>23358.20041161357</v>
@@ -26502,7 +26502,7 @@
         <v>23358.20041161357</v>
       </c>
       <c r="M5" t="n">
-        <v>23358.20041161358</v>
+        <v>23358.20041161357</v>
       </c>
       <c r="N5" t="n">
         <v>23358.20041161357</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-39530.00552459781</v>
+        <v>-25966.29785534641</v>
       </c>
       <c r="C6" t="n">
-        <v>-18238.17290968804</v>
+        <v>-49999.5600061744</v>
       </c>
       <c r="D6" t="n">
-        <v>-157957.9847524266</v>
+        <v>-91118.49189706551</v>
       </c>
       <c r="E6" t="n">
-        <v>-189716.0128925502</v>
+        <v>-162641.1375972087</v>
       </c>
       <c r="F6" t="n">
-        <v>118294.4108411073</v>
+        <v>124830.022640118</v>
       </c>
       <c r="G6" t="n">
-        <v>118294.4108411073</v>
+        <v>124830.022640118</v>
       </c>
       <c r="H6" t="n">
-        <v>118294.4108411074</v>
+        <v>124830.022640118</v>
       </c>
       <c r="I6" t="n">
-        <v>118294.4108411074</v>
+        <v>109690.6172887379</v>
       </c>
       <c r="J6" t="n">
-        <v>118294.4108411073</v>
+        <v>128647.9779232167</v>
       </c>
       <c r="K6" t="n">
-        <v>118294.4108411073</v>
+        <v>128647.9779232167</v>
       </c>
       <c r="L6" t="n">
-        <v>118294.4108411073</v>
+        <v>128647.9779232167</v>
       </c>
       <c r="M6" t="n">
-        <v>71562.28441691175</v>
+        <v>87085.13006028639</v>
       </c>
       <c r="N6" t="n">
-        <v>118294.4108411072</v>
+        <v>128647.9779232166</v>
       </c>
       <c r="O6" t="n">
-        <v>118294.4108411073</v>
+        <v>128647.9779232166</v>
       </c>
       <c r="P6" t="n">
-        <v>118294.4108411073</v>
+        <v>128647.9779232165</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>24.24340333235406</v>
+        <v>86.84870242455327</v>
       </c>
       <c r="D3" t="n">
         <v>234.7800381259942</v>
       </c>
       <c r="E3" t="n">
-        <v>548.4699409129045</v>
+        <v>530.6136320241912</v>
       </c>
       <c r="F3" t="n">
-        <v>548.4699409129045</v>
+        <v>530.6136320241912</v>
       </c>
       <c r="G3" t="n">
-        <v>548.4699409129046</v>
+        <v>530.6136320241914</v>
       </c>
       <c r="H3" t="n">
-        <v>548.4699409129046</v>
+        <v>530.6136320241912</v>
       </c>
       <c r="I3" t="n">
         <v>548.4699409129046</v>
@@ -26798,19 +26798,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>187.5255871663198</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="F4" t="n">
+        <v>166.7824266983284</v>
+      </c>
+      <c r="G4" t="n">
+        <v>166.7824266983284</v>
+      </c>
+      <c r="H4" t="n">
+        <v>166.7824266983284</v>
+      </c>
+      <c r="I4" t="n">
         <v>187.5255871663199</v>
-      </c>
-      <c r="G4" t="n">
-        <v>187.5255871663199</v>
-      </c>
-      <c r="H4" t="n">
-        <v>187.52558716632</v>
-      </c>
-      <c r="I4" t="n">
-        <v>187.52558716632</v>
       </c>
       <c r="J4" t="n">
         <v>187.5255871663199</v>
@@ -26822,7 +26822,7 @@
         <v>187.5255871663199</v>
       </c>
       <c r="M4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N4" t="n">
         <v>187.5255871663199</v>
@@ -26962,13 +26962,13 @@
         <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>1.230020645564736</v>
+        <v>63.83531973776394</v>
       </c>
       <c r="D3" t="n">
-        <v>210.5366347936401</v>
+        <v>147.9313357014409</v>
       </c>
       <c r="E3" t="n">
-        <v>313.6899027869102</v>
+        <v>295.833593898197</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>17.85630888871333</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>187.5255871663198</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>20.74316046799146</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663199</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663198</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09746091791901121</v>
+        <v>0.3491405122595104</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9981216256380738</v>
+        <v>3.575635271177712</v>
       </c>
       <c r="I5" t="n">
-        <v>3.757362038072683</v>
+        <v>13.46023959888479</v>
       </c>
       <c r="J5" t="n">
-        <v>8.271873582228684</v>
+        <v>29.63286455238564</v>
       </c>
       <c r="K5" t="n">
-        <v>12.39739423774043</v>
+        <v>44.41198243633072</v>
       </c>
       <c r="L5" t="n">
-        <v>15.38006380450437</v>
+        <v>55.09699138839273</v>
       </c>
       <c r="M5" t="n">
-        <v>17.11328440354659</v>
+        <v>61.30601897328779</v>
       </c>
       <c r="N5" t="n">
-        <v>17.39019523658398</v>
+        <v>62.29801445374513</v>
       </c>
       <c r="O5" t="n">
-        <v>16.42106823402681</v>
+        <v>58.82624848496462</v>
       </c>
       <c r="P5" t="n">
-        <v>14.01500182290122</v>
+        <v>50.20684208855795</v>
       </c>
       <c r="Q5" t="n">
-        <v>10.52468269992663</v>
+        <v>37.70324749326422</v>
       </c>
       <c r="R5" t="n">
-        <v>6.122129385230093</v>
+        <v>21.93169770322149</v>
       </c>
       <c r="S5" t="n">
-        <v>2.22089066707947</v>
+        <v>7.9560394231136</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4266351681904718</v>
+        <v>1.528362592416007</v>
       </c>
       <c r="U5" t="n">
-        <v>0.007796873433520895</v>
+        <v>0.02793124098076082</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05214618829978043</v>
+        <v>0.1868066429509259</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5036223975268268</v>
+        <v>1.80415889376289</v>
       </c>
       <c r="I6" t="n">
-        <v>1.795384114707353</v>
+        <v>6.431719943705125</v>
       </c>
       <c r="J6" t="n">
-        <v>4.926671237568291</v>
+        <v>17.64913112195568</v>
       </c>
       <c r="K6" t="n">
-        <v>8.420465853653578</v>
+        <v>30.16517619966772</v>
       </c>
       <c r="L6" t="n">
-        <v>11.32235549026592</v>
+        <v>40.56080201441047</v>
       </c>
       <c r="M6" t="n">
-        <v>13.21265481613296</v>
+        <v>47.33254282138152</v>
       </c>
       <c r="N6" t="n">
-        <v>13.56235447363456</v>
+        <v>48.58529438748665</v>
       </c>
       <c r="O6" t="n">
-        <v>12.40690472236048</v>
+        <v>44.44605245683718</v>
       </c>
       <c r="P6" t="n">
-        <v>9.957634851736142</v>
+        <v>35.67187552981321</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.656415194196533</v>
+        <v>23.84570410720942</v>
       </c>
       <c r="R6" t="n">
-        <v>3.237637901630228</v>
+        <v>11.59839841058468</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9685925765332015</v>
+        <v>3.46985146007531</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2101857326644657</v>
+        <v>0.7529618634732493</v>
       </c>
       <c r="U6" t="n">
-        <v>0.003430670282880292</v>
+        <v>0.01228991072045566</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0437176125665401</v>
+        <v>0.1566124142082108</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3886893190006931</v>
+        <v>1.392426737233002</v>
       </c>
       <c r="I7" t="n">
-        <v>1.314707839728315</v>
+        <v>4.709762420006922</v>
       </c>
       <c r="J7" t="n">
-        <v>3.090835208454385</v>
+        <v>11.0724976845205</v>
       </c>
       <c r="K7" t="n">
-        <v>5.07919171454893</v>
+        <v>18.19551503255394</v>
       </c>
       <c r="L7" t="n">
-        <v>6.499616690119971</v>
+        <v>23.28399474510072</v>
       </c>
       <c r="M7" t="n">
-        <v>6.852934486225916</v>
+        <v>24.54970780174708</v>
       </c>
       <c r="N7" t="n">
-        <v>6.689987021205181</v>
+        <v>23.96597062151649</v>
       </c>
       <c r="O7" t="n">
-        <v>6.179285819859688</v>
+        <v>22.13645287372057</v>
       </c>
       <c r="P7" t="n">
-        <v>5.287446523502266</v>
+        <v>18.94155962387305</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.660753903185463</v>
+        <v>13.11415406610754</v>
       </c>
       <c r="R7" t="n">
-        <v>1.965702834128248</v>
+        <v>7.041863642489186</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7618787571823394</v>
+        <v>2.729327254883091</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1867934355115804</v>
+        <v>0.6691621334350824</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002384597049084008</v>
+        <v>0.008542495320447872</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.204904285077001</v>
+        <v>2.133120128740466</v>
       </c>
       <c r="H11" t="n">
-        <v>22.58097600954484</v>
+        <v>21.8458165184633</v>
       </c>
       <c r="I11" t="n">
-        <v>85.00457245043117</v>
+        <v>82.23711376326689</v>
       </c>
       <c r="J11" t="n">
-        <v>187.1384950655543</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K11" t="n">
-        <v>280.4720934528638</v>
+        <v>271.3408795762703</v>
       </c>
       <c r="L11" t="n">
-        <v>347.9504329672891</v>
+        <v>336.6223547162113</v>
       </c>
       <c r="M11" t="n">
-        <v>387.1618995470272</v>
+        <v>374.5572298056996</v>
       </c>
       <c r="N11" t="n">
-        <v>393.4265838470023</v>
+        <v>380.6179573714834</v>
       </c>
       <c r="O11" t="n">
-        <v>371.5015668622679</v>
+        <v>359.4067440913204</v>
       </c>
       <c r="P11" t="n">
-        <v>317.0679923244294</v>
+        <v>306.7453409130401</v>
       </c>
       <c r="Q11" t="n">
-        <v>238.1048576151092</v>
+        <v>230.3529763025221</v>
       </c>
       <c r="R11" t="n">
-        <v>138.5038187974683</v>
+        <v>133.9946072869934</v>
       </c>
       <c r="S11" t="n">
-        <v>50.24425639619221</v>
+        <v>48.60847493367341</v>
       </c>
       <c r="T11" t="n">
-        <v>9.651968507924577</v>
+        <v>9.337733363561393</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1706496102992372</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.179727797435304</v>
+        <v>1.141319887750147</v>
       </c>
       <c r="H12" t="n">
-        <v>11.39368688575675</v>
+        <v>11.02274733695537</v>
       </c>
       <c r="I12" t="n">
-        <v>40.6178210959085</v>
+        <v>39.29544350367832</v>
       </c>
       <c r="J12" t="n">
-        <v>111.4584056340083</v>
+        <v>107.8297004474821</v>
       </c>
       <c r="K12" t="n">
-        <v>190.5001680621736</v>
+        <v>184.298132926742</v>
       </c>
       <c r="L12" t="n">
-        <v>256.1509851405032</v>
+        <v>247.8115835222414</v>
       </c>
       <c r="M12" t="n">
-        <v>298.9161177975329</v>
+        <v>289.1844294531842</v>
       </c>
       <c r="N12" t="n">
-        <v>306.8275379829653</v>
+        <v>296.8382808056841</v>
       </c>
       <c r="O12" t="n">
-        <v>280.6872536292673</v>
+        <v>271.5490348718519</v>
       </c>
       <c r="P12" t="n">
-        <v>225.2762668628872</v>
+        <v>191.4450694974777</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.5912184936713</v>
+        <v>145.68848251351</v>
       </c>
       <c r="R12" t="n">
-        <v>73.24660833550074</v>
+        <v>70.86194882013636</v>
       </c>
       <c r="S12" t="n">
-        <v>21.9129264128882</v>
+        <v>21.19951633606084</v>
       </c>
       <c r="T12" t="n">
-        <v>4.755130902820368</v>
+        <v>4.600320073870109</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07508683472040445</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.956844254469853</v>
       </c>
       <c r="H13" t="n">
-        <v>8.793501675620014</v>
+        <v>8.507215280650154</v>
       </c>
       <c r="I13" t="n">
-        <v>29.74325515639161</v>
+        <v>28.77491630714795</v>
       </c>
       <c r="J13" t="n">
-        <v>69.92542181114192</v>
+        <v>67.64888879101861</v>
       </c>
       <c r="K13" t="n">
-        <v>114.9089482765068</v>
+        <v>111.1679052011338</v>
       </c>
       <c r="L13" t="n">
-        <v>147.043892027699</v>
+        <v>142.2566448872725</v>
       </c>
       <c r="M13" t="n">
-        <v>155.0371670682165</v>
+        <v>149.9896861802152</v>
       </c>
       <c r="N13" t="n">
-        <v>151.3507297604414</v>
+        <v>146.4232666862822</v>
       </c>
       <c r="O13" t="n">
-        <v>139.7968957592433</v>
+        <v>135.245586077248</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6203949820537</v>
+        <v>115.7259632860629</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.81896107784857</v>
+        <v>80.12265843565288</v>
       </c>
       <c r="R13" t="n">
-        <v>44.47102176647909</v>
+        <v>43.0231971146172</v>
       </c>
       <c r="S13" t="n">
-        <v>17.23634224147602</v>
+        <v>16.67518578017007</v>
       </c>
       <c r="T13" t="n">
-        <v>4.225915938181394</v>
+        <v>4.088334541825734</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05219150478926476</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.204904285077001</v>
+        <v>2.133120128740466</v>
       </c>
       <c r="H14" t="n">
-        <v>22.58097600954484</v>
+        <v>21.8458165184633</v>
       </c>
       <c r="I14" t="n">
-        <v>85.00457245043117</v>
+        <v>82.23711376326689</v>
       </c>
       <c r="J14" t="n">
-        <v>187.1384950655543</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K14" t="n">
-        <v>280.4720934528638</v>
+        <v>271.3408795762703</v>
       </c>
       <c r="L14" t="n">
-        <v>347.9504329672891</v>
+        <v>336.6223547162113</v>
       </c>
       <c r="M14" t="n">
-        <v>387.1618995470272</v>
+        <v>374.5572298056996</v>
       </c>
       <c r="N14" t="n">
-        <v>393.4265838470023</v>
+        <v>380.6179573714834</v>
       </c>
       <c r="O14" t="n">
-        <v>371.5015668622679</v>
+        <v>359.4067440913204</v>
       </c>
       <c r="P14" t="n">
-        <v>317.0679923244294</v>
+        <v>306.7453409130401</v>
       </c>
       <c r="Q14" t="n">
-        <v>238.1048576151092</v>
+        <v>230.3529763025221</v>
       </c>
       <c r="R14" t="n">
-        <v>138.5038187974683</v>
+        <v>133.9946072869934</v>
       </c>
       <c r="S14" t="n">
-        <v>50.24425639619221</v>
+        <v>48.60847493367341</v>
       </c>
       <c r="T14" t="n">
-        <v>9.651968507924577</v>
+        <v>9.337733363561393</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1706496102992372</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.179727797435304</v>
+        <v>1.141319887750147</v>
       </c>
       <c r="H15" t="n">
-        <v>11.39368688575675</v>
+        <v>11.02274733695537</v>
       </c>
       <c r="I15" t="n">
-        <v>40.6178210959085</v>
+        <v>39.29544350367832</v>
       </c>
       <c r="J15" t="n">
-        <v>111.4584056340083</v>
+        <v>107.8297004474821</v>
       </c>
       <c r="K15" t="n">
-        <v>190.5001680621736</v>
+        <v>184.298132926742</v>
       </c>
       <c r="L15" t="n">
-        <v>256.1509851405032</v>
+        <v>247.8115835222414</v>
       </c>
       <c r="M15" t="n">
-        <v>298.9161177975329</v>
+        <v>262.6874582801974</v>
       </c>
       <c r="N15" t="n">
-        <v>306.8275379829653</v>
+        <v>296.8382808056841</v>
       </c>
       <c r="O15" t="n">
-        <v>280.6872536292673</v>
+        <v>271.5490348718519</v>
       </c>
       <c r="P15" t="n">
-        <v>225.2762668628872</v>
+        <v>217.9420406704645</v>
       </c>
       <c r="Q15" t="n">
-        <v>150.5912184936718</v>
+        <v>145.68848251351</v>
       </c>
       <c r="R15" t="n">
-        <v>73.24660833550074</v>
+        <v>70.86194882013636</v>
       </c>
       <c r="S15" t="n">
-        <v>21.9129264128882</v>
+        <v>21.19951633606084</v>
       </c>
       <c r="T15" t="n">
-        <v>4.755130902820368</v>
+        <v>4.600320073870109</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07508683472040445</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.956844254469853</v>
       </c>
       <c r="H16" t="n">
-        <v>8.793501675620014</v>
+        <v>8.507215280650154</v>
       </c>
       <c r="I16" t="n">
-        <v>29.74325515639161</v>
+        <v>28.77491630714795</v>
       </c>
       <c r="J16" t="n">
-        <v>69.92542181114192</v>
+        <v>67.64888879101861</v>
       </c>
       <c r="K16" t="n">
-        <v>114.9089482765068</v>
+        <v>111.1679052011338</v>
       </c>
       <c r="L16" t="n">
-        <v>147.043892027699</v>
+        <v>142.2566448872725</v>
       </c>
       <c r="M16" t="n">
-        <v>155.0371670682165</v>
+        <v>149.9896861802152</v>
       </c>
       <c r="N16" t="n">
-        <v>151.3507297604414</v>
+        <v>146.4232666862822</v>
       </c>
       <c r="O16" t="n">
-        <v>139.7968957592433</v>
+        <v>135.245586077248</v>
       </c>
       <c r="P16" t="n">
-        <v>119.6203949820537</v>
+        <v>115.7259632860629</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.81896107784857</v>
+        <v>80.12265843565288</v>
       </c>
       <c r="R16" t="n">
-        <v>44.47102176647909</v>
+        <v>43.0231971146172</v>
       </c>
       <c r="S16" t="n">
-        <v>17.23634224147602</v>
+        <v>16.67518578017007</v>
       </c>
       <c r="T16" t="n">
-        <v>4.225915938181394</v>
+        <v>4.088334541825734</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05219150478926476</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.204904285077002</v>
+        <v>2.133120128740466</v>
       </c>
       <c r="H17" t="n">
-        <v>22.58097600954485</v>
+        <v>21.84581651846331</v>
       </c>
       <c r="I17" t="n">
-        <v>85.00457245043118</v>
+        <v>82.2371137632669</v>
       </c>
       <c r="J17" t="n">
-        <v>187.1384950655543</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K17" t="n">
-        <v>280.4720934528639</v>
+        <v>271.3408795762703</v>
       </c>
       <c r="L17" t="n">
-        <v>347.9504329672893</v>
+        <v>336.6223547162114</v>
       </c>
       <c r="M17" t="n">
-        <v>387.1618995470274</v>
+        <v>374.5572298056996</v>
       </c>
       <c r="N17" t="n">
-        <v>393.4265838470024</v>
+        <v>380.6179573714836</v>
       </c>
       <c r="O17" t="n">
-        <v>371.501566862268</v>
+        <v>359.4067440913205</v>
       </c>
       <c r="P17" t="n">
-        <v>317.0679923244294</v>
+        <v>306.7453409130402</v>
       </c>
       <c r="Q17" t="n">
-        <v>238.1048576151092</v>
+        <v>230.3529763025222</v>
       </c>
       <c r="R17" t="n">
-        <v>138.5038187974683</v>
+        <v>133.9946072869934</v>
       </c>
       <c r="S17" t="n">
-        <v>50.24425639619223</v>
+        <v>48.60847493367342</v>
       </c>
       <c r="T17" t="n">
-        <v>9.651968507924579</v>
+        <v>9.337733363561396</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1706496102992373</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.179727797435304</v>
+        <v>1.141319887750148</v>
       </c>
       <c r="H18" t="n">
-        <v>11.39368688575676</v>
+        <v>11.02274733695537</v>
       </c>
       <c r="I18" t="n">
-        <v>40.6178210959085</v>
+        <v>39.29544350367833</v>
       </c>
       <c r="J18" t="n">
-        <v>111.4584056340083</v>
+        <v>107.8297004474822</v>
       </c>
       <c r="K18" t="n">
-        <v>190.5001680621737</v>
+        <v>184.298132926742</v>
       </c>
       <c r="L18" t="n">
-        <v>256.1509851405032</v>
+        <v>247.8115835222415</v>
       </c>
       <c r="M18" t="n">
-        <v>298.9161177975329</v>
+        <v>262.6874582801969</v>
       </c>
       <c r="N18" t="n">
-        <v>306.8275379829654</v>
+        <v>296.8382808056842</v>
       </c>
       <c r="O18" t="n">
-        <v>280.6872536292673</v>
+        <v>271.549034871852</v>
       </c>
       <c r="P18" t="n">
-        <v>225.2762668628872</v>
+        <v>217.9420406704646</v>
       </c>
       <c r="Q18" t="n">
-        <v>150.5912184936715</v>
+        <v>145.6884825135101</v>
       </c>
       <c r="R18" t="n">
-        <v>73.24660833550075</v>
+        <v>70.86194882013638</v>
       </c>
       <c r="S18" t="n">
-        <v>21.9129264128882</v>
+        <v>21.19951633606084</v>
       </c>
       <c r="T18" t="n">
-        <v>4.755130902820369</v>
+        <v>4.60032007387011</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07508683472040446</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9568442544698531</v>
       </c>
       <c r="H19" t="n">
-        <v>8.793501675620016</v>
+        <v>8.507215280650156</v>
       </c>
       <c r="I19" t="n">
-        <v>29.74325515639162</v>
+        <v>28.77491630714796</v>
       </c>
       <c r="J19" t="n">
-        <v>69.92542181114193</v>
+        <v>67.64888879101862</v>
       </c>
       <c r="K19" t="n">
-        <v>114.9089482765069</v>
+        <v>111.1679052011338</v>
       </c>
       <c r="L19" t="n">
-        <v>147.0438920276991</v>
+        <v>142.2566448872726</v>
       </c>
       <c r="M19" t="n">
-        <v>155.0371670682166</v>
+        <v>149.9896861802152</v>
       </c>
       <c r="N19" t="n">
-        <v>151.3507297604415</v>
+        <v>146.4232666862823</v>
       </c>
       <c r="O19" t="n">
-        <v>139.7968957592433</v>
+        <v>135.245586077248</v>
       </c>
       <c r="P19" t="n">
-        <v>119.6203949820538</v>
+        <v>115.7259632860629</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.81896107784858</v>
+        <v>80.12265843565289</v>
       </c>
       <c r="R19" t="n">
-        <v>44.4710217664791</v>
+        <v>43.0231971146172</v>
       </c>
       <c r="S19" t="n">
-        <v>17.23634224147603</v>
+        <v>16.67518578017007</v>
       </c>
       <c r="T19" t="n">
-        <v>4.225915938181394</v>
+        <v>4.088334541825735</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05219150478926478</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.204904285077002</v>
+        <v>2.133120128740466</v>
       </c>
       <c r="H20" t="n">
-        <v>22.58097600954485</v>
+        <v>21.8458165184633</v>
       </c>
       <c r="I20" t="n">
-        <v>85.00457245043118</v>
+        <v>82.23711376326689</v>
       </c>
       <c r="J20" t="n">
-        <v>187.1384950655543</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K20" t="n">
-        <v>280.4720934528639</v>
+        <v>271.3408795762703</v>
       </c>
       <c r="L20" t="n">
-        <v>347.9504329672893</v>
+        <v>336.6223547162113</v>
       </c>
       <c r="M20" t="n">
-        <v>387.1618995470274</v>
+        <v>374.5572298056996</v>
       </c>
       <c r="N20" t="n">
-        <v>393.4265838470024</v>
+        <v>380.6179573714834</v>
       </c>
       <c r="O20" t="n">
-        <v>371.501566862268</v>
+        <v>359.4067440913204</v>
       </c>
       <c r="P20" t="n">
-        <v>317.0679923244294</v>
+        <v>306.7453409130401</v>
       </c>
       <c r="Q20" t="n">
-        <v>238.1048576151092</v>
+        <v>230.3529763025221</v>
       </c>
       <c r="R20" t="n">
-        <v>138.5038187974683</v>
+        <v>133.9946072869934</v>
       </c>
       <c r="S20" t="n">
-        <v>50.24425639619223</v>
+        <v>48.60847493367341</v>
       </c>
       <c r="T20" t="n">
-        <v>9.651968507924579</v>
+        <v>9.337733363561393</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1706496102992372</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.179727797435304</v>
+        <v>1.141319887750147</v>
       </c>
       <c r="H21" t="n">
-        <v>11.39368688575676</v>
+        <v>11.02274733695537</v>
       </c>
       <c r="I21" t="n">
-        <v>40.6178210959085</v>
+        <v>39.29544350367832</v>
       </c>
       <c r="J21" t="n">
-        <v>111.4584056340083</v>
+        <v>107.8297004474821</v>
       </c>
       <c r="K21" t="n">
-        <v>190.5001680621737</v>
+        <v>184.298132926742</v>
       </c>
       <c r="L21" t="n">
-        <v>256.1509851405032</v>
+        <v>247.8115835222414</v>
       </c>
       <c r="M21" t="n">
-        <v>298.9161177975329</v>
+        <v>289.1844294531842</v>
       </c>
       <c r="N21" t="n">
-        <v>306.8275379829654</v>
+        <v>296.8382808056841</v>
       </c>
       <c r="O21" t="n">
-        <v>280.6872536292673</v>
+        <v>271.5490348718519</v>
       </c>
       <c r="P21" t="n">
-        <v>225.2762668628872</v>
+        <v>197.1517779249663</v>
       </c>
       <c r="Q21" t="n">
-        <v>150.5912184936715</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>73.24660833550075</v>
+        <v>70.86194882013636</v>
       </c>
       <c r="S21" t="n">
-        <v>21.9129264128882</v>
+        <v>21.19951633606084</v>
       </c>
       <c r="T21" t="n">
-        <v>4.755130902820369</v>
+        <v>4.600320073870109</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07508683472040445</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.956844254469853</v>
       </c>
       <c r="H22" t="n">
-        <v>8.793501675620016</v>
+        <v>8.507215280650154</v>
       </c>
       <c r="I22" t="n">
-        <v>29.74325515639162</v>
+        <v>28.77491630714795</v>
       </c>
       <c r="J22" t="n">
-        <v>69.92542181114193</v>
+        <v>67.64888879101861</v>
       </c>
       <c r="K22" t="n">
-        <v>114.9089482765069</v>
+        <v>111.1679052011338</v>
       </c>
       <c r="L22" t="n">
-        <v>147.0438920276991</v>
+        <v>142.2566448872725</v>
       </c>
       <c r="M22" t="n">
-        <v>155.0371670682166</v>
+        <v>149.9896861802152</v>
       </c>
       <c r="N22" t="n">
-        <v>151.3507297604415</v>
+        <v>146.4232666862822</v>
       </c>
       <c r="O22" t="n">
-        <v>139.7968957592433</v>
+        <v>135.245586077248</v>
       </c>
       <c r="P22" t="n">
-        <v>119.6203949820538</v>
+        <v>115.7259632860629</v>
       </c>
       <c r="Q22" t="n">
-        <v>82.81896107784858</v>
+        <v>80.12265843565288</v>
       </c>
       <c r="R22" t="n">
-        <v>44.4710217664791</v>
+        <v>43.0231971146172</v>
       </c>
       <c r="S22" t="n">
-        <v>17.23634224147603</v>
+        <v>16.67518578017007</v>
       </c>
       <c r="T22" t="n">
-        <v>4.225915938181394</v>
+        <v>4.088334541825734</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05219150478926476</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33037,7 +33037,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N27" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O27" t="n">
         <v>280.6872536292673</v>
@@ -33268,7 +33268,7 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L30" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M30" t="n">
         <v>298.9161177975329</v>
@@ -33283,7 +33283,7 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q30" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936713</v>
       </c>
       <c r="R30" t="n">
         <v>73.24660833550075</v>
@@ -33985,7 +33985,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N39" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O39" t="n">
         <v>280.6872536292673</v>
@@ -34219,7 +34219,7 @@
         <v>256.1509851405032</v>
       </c>
       <c r="M42" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N42" t="n">
         <v>306.8275379829654</v>
@@ -34389,7 +34389,7 @@
         <v>317.0679923244294</v>
       </c>
       <c r="Q44" t="n">
-        <v>238.104857615109</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R44" t="n">
         <v>138.5038187974683</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6.092590538868023</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>60.38224240788327</v>
+        <v>51.25102853128971</v>
       </c>
       <c r="L11" t="n">
-        <v>112.1840179973019</v>
+        <v>100.8559397462241</v>
       </c>
       <c r="M11" t="n">
-        <v>156.8156663197545</v>
+        <v>144.2109965784269</v>
       </c>
       <c r="N11" t="n">
-        <v>164.0135202504114</v>
+        <v>151.2048937748925</v>
       </c>
       <c r="O11" t="n">
-        <v>141.4033554405811</v>
+        <v>129.3085326696337</v>
       </c>
       <c r="P11" t="n">
-        <v>85.83499656915984</v>
+        <v>75.5123451577706</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.7991677406597</v>
+        <v>8.047286428072653</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>52.65872908781463</v>
+        <v>46.45669395238301</v>
       </c>
       <c r="L12" t="n">
-        <v>117.596605360629</v>
+        <v>109.2572037423672</v>
       </c>
       <c r="M12" t="n">
-        <v>156.7820838755146</v>
+        <v>147.0503955311659</v>
       </c>
       <c r="N12" t="n">
-        <v>175.485825899632</v>
+        <v>165.4965687223508</v>
       </c>
       <c r="O12" t="n">
-        <v>138.0910091848228</v>
+        <v>128.9527904274075</v>
       </c>
       <c r="P12" t="n">
-        <v>91.30185944855691</v>
+        <v>57.47066208314749</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.60944440764983</v>
+        <v>5.706708427488508</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>92.63945645062398</v>
+        <v>46.61896434137528</v>
       </c>
       <c r="L13" t="n">
-        <v>174.6339172880152</v>
+        <v>7.371968606034244</v>
       </c>
       <c r="M13" t="n">
-        <v>187.5255871663198</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="N13" t="n">
-        <v>123.3445726863779</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="O13" t="n">
-        <v>164.382023673283</v>
+        <v>159.8307139912877</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>113.0045225509564</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>6.092590538868023</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>60.38224240788327</v>
+        <v>51.25102853128971</v>
       </c>
       <c r="L14" t="n">
-        <v>112.1840179973019</v>
+        <v>100.8559397462241</v>
       </c>
       <c r="M14" t="n">
-        <v>156.8156663197545</v>
+        <v>144.2109965784269</v>
       </c>
       <c r="N14" t="n">
-        <v>164.0135202504114</v>
+        <v>151.2048937748925</v>
       </c>
       <c r="O14" t="n">
-        <v>141.4033554405811</v>
+        <v>129.3085326696337</v>
       </c>
       <c r="P14" t="n">
-        <v>85.83499656915984</v>
+        <v>75.5123451577706</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.7991677406597</v>
+        <v>8.047286428072653</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>52.65872908781463</v>
+        <v>46.45669395238301</v>
       </c>
       <c r="L15" t="n">
-        <v>117.596605360629</v>
+        <v>109.2572037423672</v>
       </c>
       <c r="M15" t="n">
-        <v>156.7820838755146</v>
+        <v>120.5534243581791</v>
       </c>
       <c r="N15" t="n">
-        <v>175.485825899632</v>
+        <v>165.4965687223508</v>
       </c>
       <c r="O15" t="n">
-        <v>138.0910091848228</v>
+        <v>128.9527904274075</v>
       </c>
       <c r="P15" t="n">
-        <v>91.30185944855691</v>
+        <v>83.96763325613429</v>
       </c>
       <c r="Q15" t="n">
-        <v>10.60944440765028</v>
+        <v>5.706708427488508</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>88.89841337525095</v>
       </c>
       <c r="L16" t="n">
-        <v>174.6339172880152</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="M16" t="n">
-        <v>187.5255871663199</v>
+        <v>11.06390223261016</v>
       </c>
       <c r="N16" t="n">
-        <v>187.5255871663199</v>
+        <v>120.8110440378768</v>
       </c>
       <c r="O16" t="n">
-        <v>164.382023673283</v>
+        <v>159.8307139912877</v>
       </c>
       <c r="P16" t="n">
-        <v>28.45844197068235</v>
+        <v>113.0045225509564</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>6.092590538868052</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>60.38224240788308</v>
+        <v>51.25102853128976</v>
       </c>
       <c r="L17" t="n">
-        <v>112.184017997302</v>
+        <v>100.8559397462242</v>
       </c>
       <c r="M17" t="n">
-        <v>156.8156663197546</v>
+        <v>144.2109965784269</v>
       </c>
       <c r="N17" t="n">
-        <v>164.0135202504115</v>
+        <v>151.2048937748926</v>
       </c>
       <c r="O17" t="n">
-        <v>141.4033554405812</v>
+        <v>129.3085326696338</v>
       </c>
       <c r="P17" t="n">
-        <v>85.8349965691599</v>
+        <v>75.51234515777065</v>
       </c>
       <c r="Q17" t="n">
-        <v>15.79916774065975</v>
+        <v>8.047286428072681</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>52.65872908781469</v>
+        <v>46.45669395238303</v>
       </c>
       <c r="L18" t="n">
-        <v>117.596605360629</v>
+        <v>109.2572037423673</v>
       </c>
       <c r="M18" t="n">
-        <v>156.7820838755146</v>
+        <v>120.5534243581786</v>
       </c>
       <c r="N18" t="n">
-        <v>175.4858258996321</v>
+        <v>165.4965687223509</v>
       </c>
       <c r="O18" t="n">
-        <v>138.0910091848229</v>
+        <v>128.9527904274075</v>
       </c>
       <c r="P18" t="n">
-        <v>91.30185944855694</v>
+        <v>83.96763325613435</v>
       </c>
       <c r="Q18" t="n">
-        <v>10.60944440764996</v>
+        <v>5.706708427488564</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>88.89841337525097</v>
       </c>
       <c r="L19" t="n">
-        <v>174.6339172880152</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="M19" t="n">
-        <v>187.5255871663199</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="N19" t="n">
-        <v>187.5255871663199</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="O19" t="n">
-        <v>164.382023673283</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>28.45844197068223</v>
+        <v>71.14532941607413</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>6.092590538868052</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>60.38224240788333</v>
+        <v>51.25102853128971</v>
       </c>
       <c r="L20" t="n">
-        <v>112.184017997302</v>
+        <v>100.8559397462241</v>
       </c>
       <c r="M20" t="n">
-        <v>156.8156663197546</v>
+        <v>144.2109965784269</v>
       </c>
       <c r="N20" t="n">
-        <v>164.0135202504115</v>
+        <v>151.2048937748925</v>
       </c>
       <c r="O20" t="n">
-        <v>141.4033554405812</v>
+        <v>129.3085326696337</v>
       </c>
       <c r="P20" t="n">
-        <v>85.8349965691599</v>
+        <v>75.5123451577706</v>
       </c>
       <c r="Q20" t="n">
-        <v>15.79916774065975</v>
+        <v>8.047286428072653</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>52.65872908781469</v>
+        <v>46.45669395238301</v>
       </c>
       <c r="L21" t="n">
-        <v>117.596605360629</v>
+        <v>109.2572037423672</v>
       </c>
       <c r="M21" t="n">
-        <v>156.7820838755146</v>
+        <v>147.0503955311659</v>
       </c>
       <c r="N21" t="n">
-        <v>175.4858258996321</v>
+        <v>165.4965687223508</v>
       </c>
       <c r="O21" t="n">
-        <v>138.0910091848229</v>
+        <v>128.9527904274075</v>
       </c>
       <c r="P21" t="n">
-        <v>91.30185944855694</v>
+        <v>63.17737051063609</v>
       </c>
       <c r="Q21" t="n">
-        <v>10.60944440764996</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>88.89841337525095</v>
       </c>
       <c r="L22" t="n">
-        <v>174.6339172880152</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="M22" t="n">
-        <v>187.52558716632</v>
+        <v>11.06390223261016</v>
       </c>
       <c r="N22" t="n">
-        <v>187.52558716632</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="O22" t="n">
-        <v>164.382023673283</v>
+        <v>113.8593313308361</v>
       </c>
       <c r="P22" t="n">
-        <v>28.45844197068223</v>
+        <v>113.0045225509564</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>92.63945645062401</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>110.4529028080735</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M25" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N25" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O25" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>28.45844197068212</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538867813</v>
       </c>
       <c r="K26" t="n">
         <v>60.38224240788333</v>
@@ -36685,7 +36685,7 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N27" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O27" t="n">
         <v>138.0910091848229</v>
@@ -36755,10 +36755,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>92.63945645062401</v>
       </c>
       <c r="L28" t="n">
-        <v>174.6339172880152</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M28" t="n">
         <v>187.5255871663199</v>
@@ -36770,7 +36770,7 @@
         <v>164.382023673283</v>
       </c>
       <c r="P28" t="n">
-        <v>28.45844197068212</v>
+        <v>98.29368706161262</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538867813</v>
       </c>
       <c r="K29" t="n">
         <v>60.38224240788333</v>
@@ -36852,7 +36852,7 @@
         <v>85.8349965691599</v>
       </c>
       <c r="Q29" t="n">
-        <v>15.79916774065942</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>52.65872908781469</v>
       </c>
       <c r="L30" t="n">
-        <v>117.5966053606288</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M30" t="n">
         <v>156.7820838755146</v>
@@ -36931,7 +36931,7 @@
         <v>91.30185944855694</v>
       </c>
       <c r="Q30" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764983</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>28.45844197068213</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>174.6339172880152</v>
@@ -37007,7 +37007,7 @@
         <v>164.382023673283</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>28.45844197068223</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>6.092590538867702</v>
+        <v>6.092590538867813</v>
       </c>
       <c r="K32" t="n">
         <v>60.38224240788333</v>
@@ -37229,22 +37229,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>92.63945645062401</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>110.4529028080733</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M34" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="N34" t="n">
-        <v>187.5255871663199</v>
+        <v>99.08507489005487</v>
       </c>
       <c r="O34" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>6.092590538868052</v>
       </c>
       <c r="K35" t="n">
-        <v>60.38224240788353</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L35" t="n">
         <v>112.184017997302</v>
@@ -37323,7 +37323,7 @@
         <v>141.4033554405812</v>
       </c>
       <c r="P35" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915971</v>
       </c>
       <c r="Q35" t="n">
         <v>15.79916774065975</v>
@@ -37466,19 +37466,19 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>28.45844197068243</v>
+        <v>92.63945645062401</v>
       </c>
       <c r="L37" t="n">
         <v>174.6339172880152</v>
       </c>
       <c r="M37" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N37" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O37" t="n">
-        <v>164.382023673283</v>
+        <v>100.2010091933412</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37633,7 +37633,7 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N39" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O39" t="n">
         <v>138.0910091848229</v>
@@ -37703,19 +37703,19 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>92.63945645062401</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>174.6339172880152</v>
+        <v>86.19340501175017</v>
       </c>
       <c r="M40" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="N40" t="n">
-        <v>169.4872848053134</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O40" t="n">
-        <v>1.340357307400524</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P40" t="n">
         <v>116.8989542469472</v>
@@ -37800,7 +37800,7 @@
         <v>85.8349965691599</v>
       </c>
       <c r="Q41" t="n">
-        <v>15.79916774065954</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37867,7 +37867,7 @@
         <v>117.596605360629</v>
       </c>
       <c r="M42" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755145</v>
       </c>
       <c r="N42" t="n">
         <v>175.4858258996321</v>
@@ -37943,13 +37943,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>174.6339172880152</v>
+        <v>86.19340501175017</v>
       </c>
       <c r="M43" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="N43" t="n">
-        <v>99.08507489005487</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O43" t="n">
         <v>164.382023673283</v>
@@ -38037,7 +38037,7 @@
         <v>85.8349965691599</v>
       </c>
       <c r="Q44" t="n">
-        <v>15.79916774065954</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38110,7 +38110,7 @@
         <v>175.4858258996321</v>
       </c>
       <c r="O45" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P45" t="n">
         <v>91.30185944855694</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>28.45844197068221</v>
       </c>
       <c r="L46" t="n">
         <v>174.6339172880152</v>
@@ -38192,7 +38192,7 @@
         <v>164.382023673283</v>
       </c>
       <c r="P46" t="n">
-        <v>28.45844197068223</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
